--- a/output.xlsx
+++ b/output.xlsx
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ainterstatewire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>interstatewire.com</t>
         </is>
       </c>
       <c r="B3">
@@ -487,7 +487,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apeerlesselectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>peerlesselectronics.com</t>
         </is>
       </c>
       <c r="B4">
@@ -506,7 +506,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ateesing.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>teesing.com</t>
         </is>
       </c>
       <c r="B5">
@@ -525,7 +525,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adelta-americas.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>delta-americas.com</t>
         </is>
       </c>
       <c r="B6">
@@ -544,7 +544,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ajameco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>jameco.com</t>
         </is>
       </c>
       <c r="B7">
@@ -563,7 +563,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahellermanntyton.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hellermanntyton.us</t>
         </is>
       </c>
       <c r="B8">
@@ -582,7 +582,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Astockwell.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>stockwell.com</t>
         </is>
       </c>
       <c r="B9">
@@ -601,7 +601,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aslkcorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>slkcorp.com</t>
         </is>
       </c>
       <c r="B10">
@@ -620,7 +620,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aversae.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>versae.com</t>
         </is>
       </c>
       <c r="B11">
@@ -639,7 +639,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agilautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gilautomation.com</t>
         </is>
       </c>
       <c r="B12">
@@ -658,7 +658,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aadamconn.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>adamconn.com</t>
         </is>
       </c>
       <c r="B13">
@@ -677,7 +677,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awatteredge.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>watteredge.com</t>
         </is>
       </c>
       <c r="B14">
@@ -696,7 +696,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aacecontrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>acecontrols.com</t>
         </is>
       </c>
       <c r="B15">
@@ -715,7 +715,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aect-cpg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ect-cpg.com</t>
         </is>
       </c>
       <c r="B16">
@@ -734,7 +734,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acui.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cui.com</t>
         </is>
       </c>
       <c r="B17">
@@ -753,7 +753,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aconnecticc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>connecticc.com</t>
         </is>
       </c>
       <c r="B18">
@@ -772,7 +772,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.triadtechnologies.com/fluid-connectors/quick-couplings.html</t>
+          <t>triadtechnologies.com</t>
         </is>
       </c>
       <c r="B19">
@@ -791,7 +791,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anelcoproducts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nelcoproducts.com</t>
         </is>
       </c>
       <c r="B20">
@@ -810,7 +810,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aeurotherm.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>eurotherm.com</t>
         </is>
       </c>
       <c r="B21">
@@ -829,7 +829,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aamphenol-industrial.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>amphenol-industrial.com</t>
         </is>
       </c>
       <c r="B22">
@@ -848,7 +848,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atherm-x.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>therm-x.com</t>
         </is>
       </c>
       <c r="B23">
@@ -867,7 +867,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anexans.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nexans.us</t>
         </is>
       </c>
       <c r="B24">
@@ -886,7 +886,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afralock.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>fralock.com</t>
         </is>
       </c>
       <c r="B25">
@@ -905,7 +905,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.walkerindustrial.com/cindex.asp</t>
+          <t>walkerindustrial.com</t>
         </is>
       </c>
       <c r="B26">
@@ -924,7 +924,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awinn-marion.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>winn-marion.com</t>
         </is>
       </c>
       <c r="B27">
@@ -943,7 +943,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acypressindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cypressindustries.com</t>
         </is>
       </c>
       <c r="B28">
@@ -962,7 +962,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aawcwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>awcwire.com</t>
         </is>
       </c>
       <c r="B29">
@@ -981,7 +981,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alexproducts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lexproducts.com</t>
         </is>
       </c>
       <c r="B30">
@@ -1000,7 +1000,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aheilindasia.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>heilindasia.com</t>
         </is>
       </c>
       <c r="B31">
@@ -1019,7 +1019,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ayeu.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>yeu.com</t>
         </is>
       </c>
       <c r="B32">
@@ -1038,7 +1038,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aairhydropower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>airhydropower.com</t>
         </is>
       </c>
       <c r="B33">
@@ -1057,7 +1057,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.peigenesis.com/images/content/pei_tabs/te-connectivity/circular/quadrax-38999/eng_ds_1-1773922-9_deutsch38999_0819.pdf</t>
+          <t>peigenesis.com</t>
         </is>
       </c>
       <c r="B34">
@@ -1076,7 +1076,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aairlinehyd.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>airlinehyd.com</t>
         </is>
       </c>
       <c r="B35">
@@ -1095,7 +1095,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apowermation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>powermation.com</t>
         </is>
       </c>
       <c r="B36">
@@ -1114,7 +1114,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aturtle.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>turtle.com</t>
         </is>
       </c>
       <c r="B37">
@@ -1174,7 +1174,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asmtllcgroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>smtllcgroup.com</t>
         </is>
       </c>
       <c r="B3">
@@ -1193,7 +1193,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aamphenol.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>amphenol.com</t>
         </is>
       </c>
       <c r="B4">
@@ -1212,7 +1212,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agalaxywire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>galaxywire.com</t>
         </is>
       </c>
       <c r="B5">
@@ -1231,7 +1231,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.smcelectric.com/hoses-and-fittings/</t>
+          <t>smcelectric.com</t>
         </is>
       </c>
       <c r="B6">
@@ -1250,7 +1250,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aempirewc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>empirewc.com</t>
         </is>
       </c>
       <c r="B7">
@@ -1269,7 +1269,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apcb.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>pcb.com</t>
         </is>
       </c>
       <c r="B8">
@@ -1288,7 +1288,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ainterconind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>interconind.com</t>
         </is>
       </c>
       <c r="B9">
@@ -1307,7 +1307,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ajohnsonoutdoors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>johnsonoutdoors.com</t>
         </is>
       </c>
       <c r="B10">
@@ -1326,7 +1326,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Astantek-us.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>stantek-us.com</t>
         </is>
       </c>
       <c r="B11">
@@ -1345,7 +1345,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aavinpower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>avinpower.com</t>
         </is>
       </c>
       <c r="B12">
@@ -1364,7 +1364,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aliquidindustryllc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>liquidindustryllc.com</t>
         </is>
       </c>
       <c r="B13">
@@ -1383,7 +1383,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aprogressiveimage.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>progressiveimage.com</t>
         </is>
       </c>
       <c r="B14">
@@ -1402,7 +1402,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agswiring.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gswiring.com</t>
         </is>
       </c>
       <c r="B15">
@@ -1421,7 +1421,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahughespeters.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hughespeters.com</t>
         </is>
       </c>
       <c r="B16">
@@ -1440,7 +1440,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aobmfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>obmfg.com</t>
         </is>
       </c>
       <c r="B17">
@@ -1459,7 +1459,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Al2aviation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>l2aviation.com</t>
         </is>
       </c>
       <c r="B18">
@@ -1478,7 +1478,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aintegralcomponents.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>integralcomponents.com</t>
         </is>
       </c>
       <c r="B19">
@@ -1497,7 +1497,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aglenair.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>glenair.com</t>
         </is>
       </c>
       <c r="B20">
@@ -1516,7 +1516,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aqdmfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>qdmfg.com</t>
         </is>
       </c>
       <c r="B21">
@@ -1535,7 +1535,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaltec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>altec.com</t>
         </is>
       </c>
       <c r="B22">
@@ -1554,7 +1554,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aepectec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>epectec.com</t>
         </is>
       </c>
       <c r="B23">
@@ -1573,7 +1573,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aascentron.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ascentron.com</t>
         </is>
       </c>
       <c r="B24">
@@ -1592,7 +1592,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aimpea.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>impea.com</t>
         </is>
       </c>
       <c r="B25">
@@ -1611,7 +1611,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3A567itg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>567itg.com</t>
         </is>
       </c>
       <c r="B26">
@@ -1630,7 +1630,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aelectrowire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>electrowire.com</t>
         </is>
       </c>
       <c r="B27">
@@ -1649,7 +1649,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acustomcable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>customcable.com</t>
         </is>
       </c>
       <c r="B28">
@@ -1668,7 +1668,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awhitneyblake.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>whitneyblake.com</t>
         </is>
       </c>
       <c r="B29">
@@ -1687,7 +1687,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adcxchol.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>dcxchol.com</t>
         </is>
       </c>
       <c r="B30">
@@ -1706,7 +1706,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anortra-cables.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nortra-cables.com</t>
         </is>
       </c>
       <c r="B31">
@@ -1725,7 +1725,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aamericor-usa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>americor-usa.com</t>
         </is>
       </c>
       <c r="B32">
@@ -1744,7 +1744,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ainterlnx.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>interlnx.com</t>
         </is>
       </c>
       <c r="B33">
@@ -1763,7 +1763,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amercuryelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>mercuryelectronics.com</t>
         </is>
       </c>
       <c r="B34">
@@ -1782,7 +1782,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asaltlakecable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>saltlakecable.com</t>
         </is>
       </c>
       <c r="B35">
@@ -1801,7 +1801,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atrekconnect.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>trekconnect.com</t>
         </is>
       </c>
       <c r="B36">
@@ -1820,7 +1820,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arvi-inc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>rvi-inc.com</t>
         </is>
       </c>
       <c r="B37">
@@ -1839,7 +1839,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aglobaltec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>globaltec.com</t>
         </is>
       </c>
       <c r="B38">
@@ -1858,7 +1858,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anai-group.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nai-group.com</t>
         </is>
       </c>
       <c r="B39">
@@ -1877,7 +1877,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahstproducts.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hstproducts.net</t>
         </is>
       </c>
       <c r="B40">
@@ -1896,7 +1896,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amatric.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>matric.com</t>
         </is>
       </c>
       <c r="B41">
@@ -1915,7 +1915,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ainterconnectinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>interconnectinc.com</t>
         </is>
       </c>
       <c r="B42">
@@ -1934,7 +1934,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amicroconnex.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>microconnex.com</t>
         </is>
       </c>
       <c r="B43">
@@ -1953,7 +1953,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apui.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>pui.com</t>
         </is>
       </c>
       <c r="B44">
@@ -1972,7 +1972,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asaricamfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>saricamfg.com</t>
         </is>
       </c>
       <c r="B45">
@@ -1991,7 +1991,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acascomanufacturing.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cascomanufacturing.com</t>
         </is>
       </c>
       <c r="B46">
@@ -2010,7 +2010,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aautacusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>autacusa.com</t>
         </is>
       </c>
       <c r="B47">
@@ -2029,7 +2029,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahealemfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>healemfg.com</t>
         </is>
       </c>
       <c r="B48">
@@ -2048,7 +2048,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agenisco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>genisco.com</t>
         </is>
       </c>
       <c r="B49">
@@ -2067,7 +2067,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asundownco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sundownco.com</t>
         </is>
       </c>
       <c r="B50">
@@ -2086,7 +2086,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahuppaerospace.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>huppaerospace.com</t>
         </is>
       </c>
       <c r="B51">
@@ -2105,7 +2105,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ainterconinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>interconinc.com</t>
         </is>
       </c>
       <c r="B52">
@@ -2124,7 +2124,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acascoauto.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cascoauto.com</t>
         </is>
       </c>
       <c r="B53">
@@ -2143,7 +2143,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaxoncable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>axoncable.com</t>
         </is>
       </c>
       <c r="B54">
@@ -2162,7 +2162,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awinconn.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>winconn.com</t>
         </is>
       </c>
       <c r="B55">
@@ -2181,7 +2181,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ainsource-tech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>insource-tech.com</t>
         </is>
       </c>
       <c r="B56">
@@ -2200,7 +2200,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acoaxinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>coaxinc.com</t>
         </is>
       </c>
       <c r="B57">
@@ -2219,7 +2219,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aarimon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>arimon.com</t>
         </is>
       </c>
       <c r="B58">
@@ -2238,7 +2238,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atimberlinemfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>timberlinemfg.com</t>
         </is>
       </c>
       <c r="B59">
@@ -2257,7 +2257,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Auniqueelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>uniqueelectronics.com</t>
         </is>
       </c>
       <c r="B60">
@@ -2276,7 +2276,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Achannercorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>channercorp.com</t>
         </is>
       </c>
       <c r="B61">
@@ -2295,7 +2295,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ammsolutions.biz+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>mmsolutions.biz</t>
         </is>
       </c>
       <c r="B62">
@@ -2314,7 +2314,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abaycable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>baycable.com</t>
         </is>
       </c>
       <c r="B63">
@@ -2333,7 +2333,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atrsintl.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>trsintl.com</t>
         </is>
       </c>
       <c r="B64">
@@ -2352,7 +2352,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aamscous.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>amscous.com</t>
         </is>
       </c>
       <c r="B65">
@@ -2371,7 +2371,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aesam.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>esam.com</t>
         </is>
       </c>
       <c r="B66">
@@ -2390,7 +2390,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aleemah.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>leemah.com</t>
         </is>
       </c>
       <c r="B67">
@@ -2409,7 +2409,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asourceeng.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sourceeng.com</t>
         </is>
       </c>
       <c r="B68">
@@ -2428,7 +2428,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aictcusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ictcusa.com</t>
         </is>
       </c>
       <c r="B69">
@@ -2447,7 +2447,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apcs-wi.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>pcs-wi.com</t>
         </is>
       </c>
       <c r="B70">
@@ -2466,7 +2466,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ane-electronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ne-electronics.com</t>
         </is>
       </c>
       <c r="B71">
@@ -2485,7 +2485,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adcelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>dcelectronics.com</t>
         </is>
       </c>
       <c r="B72">
@@ -2504,7 +2504,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aconexsmart.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>conexsmart.com</t>
         </is>
       </c>
       <c r="B73">
@@ -2523,7 +2523,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awallace-elec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>wallace-elec.com</t>
         </is>
       </c>
       <c r="B74">
@@ -2542,7 +2542,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acableassociates.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cableassociates.com</t>
         </is>
       </c>
       <c r="B75">
@@ -2561,7 +2561,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aetronsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>etronsystems.com</t>
         </is>
       </c>
       <c r="B76">
@@ -2580,7 +2580,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awotkollc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>wotkollc.com</t>
         </is>
       </c>
       <c r="B77">
@@ -2599,7 +2599,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acordmaster.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cordmaster.com</t>
         </is>
       </c>
       <c r="B78">
@@ -2618,7 +2618,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ameehanelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>meehanelectronics.com</t>
         </is>
       </c>
       <c r="B79">
@@ -2637,7 +2637,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aheltronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>heltronics.com</t>
         </is>
       </c>
       <c r="B80">
@@ -2656,7 +2656,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aapavionics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>apavionics.com</t>
         </is>
       </c>
       <c r="B81">
@@ -2675,7 +2675,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aparkmfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>parkmfg.com</t>
         </is>
       </c>
       <c r="B82">
@@ -2694,7 +2694,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aabsoluteq.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>absoluteq.com</t>
         </is>
       </c>
       <c r="B83">
@@ -2713,7 +2713,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ael-comsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>el-comsystems.com</t>
         </is>
       </c>
       <c r="B84">
@@ -2732,7 +2732,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amnstar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>mnstar.com</t>
         </is>
       </c>
       <c r="B85">
@@ -2751,7 +2751,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aagexpress.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>agexpress.com</t>
         </is>
       </c>
       <c r="B86">
@@ -2770,7 +2770,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Assi-sensors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ssi-sensors.com</t>
         </is>
       </c>
       <c r="B87">
@@ -2789,7 +2789,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aelectrolmfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>electrolmfg.com</t>
         </is>
       </c>
       <c r="B88">
@@ -2808,7 +2808,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aomniks.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>omniks.com</t>
         </is>
       </c>
       <c r="B89">
@@ -2827,7 +2827,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ainterconnect-wiring.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>interconnect-wiring.com</t>
         </is>
       </c>
       <c r="B90">
@@ -2846,7 +2846,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afederalelec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>federalelec.com</t>
         </is>
       </c>
       <c r="B91">
@@ -2865,7 +2865,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aborisch.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>borisch.com</t>
         </is>
       </c>
       <c r="B92">
@@ -2884,7 +2884,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaceelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>aceelectronics.com</t>
         </is>
       </c>
       <c r="B93">
@@ -2903,7 +2903,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alonestarindustrial.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lonestarindustrial.com</t>
         </is>
       </c>
       <c r="B94">
@@ -2922,7 +2922,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abccelectronicsabq.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>bccelectronicsabq.com</t>
         </is>
       </c>
       <c r="B95">
@@ -2941,7 +2941,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amegatechway.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>megatechway.com</t>
         </is>
       </c>
       <c r="B96">
@@ -2960,7 +2960,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amicrotek.org+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>microtek.org</t>
         </is>
       </c>
       <c r="B97">
@@ -2979,7 +2979,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adynalabems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>dynalabems.com</t>
         </is>
       </c>
       <c r="B98">
@@ -2998,7 +2998,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Addhent.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ddhent.com</t>
         </is>
       </c>
       <c r="B99">
@@ -3017,7 +3017,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amidconcables.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>midconcables.com</t>
         </is>
       </c>
       <c r="B100">
@@ -3036,7 +3036,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Akihomac.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>kihomac.com</t>
         </is>
       </c>
       <c r="B101">
@@ -3055,7 +3055,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acobointernational.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cobointernational.com</t>
         </is>
       </c>
       <c r="B102">
@@ -3074,7 +3074,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abyrne.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>byrne.com</t>
         </is>
       </c>
       <c r="B103">
@@ -3093,7 +3093,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afalconerelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>falconerelectronics.com</t>
         </is>
       </c>
       <c r="B104">
@@ -3112,7 +3112,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awrwp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>wrwp.com</t>
         </is>
       </c>
       <c r="B105">
@@ -3131,7 +3131,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aelectripack.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>electripack.com</t>
         </is>
       </c>
       <c r="B106">
@@ -3150,7 +3150,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avse.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>vse.com</t>
         </is>
       </c>
       <c r="B107">
@@ -3169,7 +3169,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aicorally.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>icorally.com</t>
         </is>
       </c>
       <c r="B108">
@@ -3188,7 +3188,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asyncomelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>syncomelectronics.com</t>
         </is>
       </c>
       <c r="B109">
@@ -3207,7 +3207,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aocp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ocp.com</t>
         </is>
       </c>
       <c r="B110">
@@ -3226,7 +3226,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aharting.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>harting.com</t>
         </is>
       </c>
       <c r="B111">
@@ -3245,7 +3245,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asechan.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sechan.com</t>
         </is>
       </c>
       <c r="B112">
@@ -3264,7 +3264,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aprecisecables.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>precisecables.com</t>
         </is>
       </c>
       <c r="B113">
@@ -3283,7 +3283,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Akatocable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>katocable.com</t>
         </is>
       </c>
       <c r="B114">
@@ -3302,7 +3302,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aus-wire-harness.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>us-wire-harness.com</t>
         </is>
       </c>
       <c r="B115">
@@ -3321,7 +3321,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aconvenienceelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>convenienceelectronics.com</t>
         </is>
       </c>
       <c r="B116">
@@ -3340,7 +3340,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arescoelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>rescoelectronics.com</t>
         </is>
       </c>
       <c r="B117">
@@ -3359,7 +3359,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avergentproducts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>vergentproducts.com</t>
         </is>
       </c>
       <c r="B118">
@@ -3378,7 +3378,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aeit.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>eit.com</t>
         </is>
       </c>
       <c r="B119">
@@ -3397,7 +3397,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atecvox.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>tecvox.com</t>
         </is>
       </c>
       <c r="B120">
@@ -3416,7 +3416,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acompulink.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>compulink.com</t>
         </is>
       </c>
       <c r="B121">
@@ -3435,7 +3435,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaltekelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>altekelectronics.com</t>
         </is>
       </c>
       <c r="B122">
@@ -3454,7 +3454,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aonshoretechnologies.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>onshoretechnologies.com</t>
         </is>
       </c>
       <c r="B123">
@@ -3473,7 +3473,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahydrax-cbl.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hydrax-cbl.com</t>
         </is>
       </c>
       <c r="B124">
@@ -3492,7 +3492,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Azaxis.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>zaxis.net</t>
         </is>
       </c>
       <c r="B125">
@@ -3511,7 +3511,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awinar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>winar.com</t>
         </is>
       </c>
       <c r="B126">
@@ -3530,7 +3530,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aatlasgroupaero.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>atlasgroupaero.com</t>
         </is>
       </c>
       <c r="B127">
@@ -3549,7 +3549,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aarc-tronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>arc-tronics.com</t>
         </is>
       </c>
       <c r="B128">
@@ -3568,7 +3568,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aetimfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>etimfg.com</t>
         </is>
       </c>
       <c r="B129">
@@ -3587,7 +3587,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adeltagroupinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>deltagroupinc.com</t>
         </is>
       </c>
       <c r="B130">
@@ -3606,7 +3606,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acelltron.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>celltron.com</t>
         </is>
       </c>
       <c r="B131">
@@ -3625,7 +3625,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aiesgray.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>iesgray.com</t>
         </is>
       </c>
       <c r="B132">
@@ -3644,7 +3644,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afin-con.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>fin-con.com</t>
         </is>
       </c>
       <c r="B133">
@@ -3663,7 +3663,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anpitechnologies.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>npitechnologies.com</t>
         </is>
       </c>
       <c r="B134">
@@ -3682,7 +3682,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awrsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>wrsystems.com</t>
         </is>
       </c>
       <c r="B135">
@@ -3701,7 +3701,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aheico.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>heico.com</t>
         </is>
       </c>
       <c r="B136">
@@ -3720,7 +3720,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atscmfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>tscmfg.com</t>
         </is>
       </c>
       <c r="B137">
@@ -3739,7 +3739,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awelldonepcb.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>welldonepcb.com</t>
         </is>
       </c>
       <c r="B138">
@@ -3758,7 +3758,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anortechsys.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nortechsys.com</t>
         </is>
       </c>
       <c r="B139">
@@ -3777,7 +3777,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aa2zems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>a2zems.com</t>
         </is>
       </c>
       <c r="B140">
@@ -3796,7 +3796,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aalchemycontrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>alchemycontrols.com</t>
         </is>
       </c>
       <c r="B141">
@@ -3815,7 +3815,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anexthermal.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nexthermal.com</t>
         </is>
       </c>
       <c r="B142">
@@ -3834,7 +3834,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avermillioninc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>vermillioninc.com</t>
         </is>
       </c>
       <c r="B143">
@@ -3853,7 +3853,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awhiteproducts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>whiteproducts.com</t>
         </is>
       </c>
       <c r="B144">
@@ -3872,7 +3872,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aunisourceassembly.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>unisourceassembly.com</t>
         </is>
       </c>
       <c r="B145">
@@ -3891,7 +3891,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awiretechltd.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>wiretechltd.com</t>
         </is>
       </c>
       <c r="B146">
@@ -3910,7 +3910,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asosmfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sosmfg.com</t>
         </is>
       </c>
       <c r="B147">
@@ -3929,7 +3929,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aheritagewire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>heritagewire.com</t>
         </is>
       </c>
       <c r="B148">
@@ -3948,7 +3948,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aknextec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>knextec.com</t>
         </is>
       </c>
       <c r="B149">
@@ -3967,7 +3967,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaffprod.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>affprod.com</t>
         </is>
       </c>
       <c r="B150">
@@ -3986,7 +3986,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aelectritec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>electritec.com</t>
         </is>
       </c>
       <c r="B151">
@@ -4005,7 +4005,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ajemelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>jemelectronics.com</t>
         </is>
       </c>
       <c r="B152">
@@ -4024,7 +4024,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amac-cable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>mac-cable.com</t>
         </is>
       </c>
       <c r="B153">
@@ -4043,7 +4043,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awireharnessesoforegon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>wireharnessesoforegon.com</t>
         </is>
       </c>
       <c r="B154">
@@ -4062,7 +4062,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Areproparts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>reproparts.com</t>
         </is>
       </c>
       <c r="B155">
@@ -4081,7 +4081,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arichardmfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>richardmfg.com</t>
         </is>
       </c>
       <c r="B156">
@@ -4100,7 +4100,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atackelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>tackelectronics.com</t>
         </is>
       </c>
       <c r="B157">
@@ -4119,7 +4119,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aemsco-inc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>emsco-inc.com</t>
         </is>
       </c>
       <c r="B158">
@@ -4138,7 +4138,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acesar-scott.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cesar-scott.com</t>
         </is>
       </c>
       <c r="B159">
@@ -4157,7 +4157,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agenco-industries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>genco-industries.com</t>
         </is>
       </c>
       <c r="B160">
@@ -4176,7 +4176,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atri-star-technologies.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>tri-star-technologies.com</t>
         </is>
       </c>
       <c r="B161">
@@ -4195,7 +4195,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaeroelectronics.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>aeroelectronics.net</t>
         </is>
       </c>
       <c r="B162">
@@ -4214,7 +4214,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaeromotive.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>aeromotive.us</t>
         </is>
       </c>
       <c r="B163">
@@ -4233,7 +4233,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaltechlive.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>altechlive.com</t>
         </is>
       </c>
       <c r="B164">
@@ -4252,7 +4252,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaltexwireandcable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>altexwireandcable.com</t>
         </is>
       </c>
       <c r="B165">
@@ -4271,7 +4271,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaltronicsmfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>altronicsmfg.com</t>
         </is>
       </c>
       <c r="B166">
@@ -4290,7 +4290,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aamericansyscomptel.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>americansyscomptel.com</t>
         </is>
       </c>
       <c r="B167">
@@ -4309,7 +4309,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agriffithent.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>griffithent.com</t>
         </is>
       </c>
       <c r="B168">
@@ -4328,7 +4328,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aarcflotech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>arcflotech.com</t>
         </is>
       </c>
       <c r="B169">
@@ -4347,7 +4347,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaxon-cable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>axon-cable.com</t>
         </is>
       </c>
       <c r="B170">
@@ -4366,7 +4366,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abasewest.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>basewest.com</t>
         </is>
       </c>
       <c r="B171">
@@ -4385,7 +4385,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abestsource2.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>bestsource2.com</t>
         </is>
       </c>
       <c r="B172">
@@ -4404,7 +4404,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abluevalleycapital.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>bluevalleycapital.com</t>
         </is>
       </c>
       <c r="B173">
@@ -4423,7 +4423,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acmcorporation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cmcorporation.com</t>
         </is>
       </c>
       <c r="B174">
@@ -4442,7 +4442,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acabletechnologiesinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cabletechnologiesinc.com</t>
         </is>
       </c>
       <c r="B175">
@@ -4461,7 +4461,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acomponentsexpress.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>componentsexpress.com</t>
         </is>
       </c>
       <c r="B176">
@@ -4480,7 +4480,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adynamic-manufacturing.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>dynamic-manufacturing.com</t>
         </is>
       </c>
       <c r="B177">
@@ -4499,7 +4499,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aeclinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>eclinc.com</t>
         </is>
       </c>
       <c r="B178">
@@ -4518,7 +4518,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aepecorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>epecorp.com</t>
         </is>
       </c>
       <c r="B179">
@@ -4537,7 +4537,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aeverydaytech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>everydaytech.com</t>
         </is>
       </c>
       <c r="B180">
@@ -4556,7 +4556,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aexcelspecialty.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>excelspecialty.com</t>
         </is>
       </c>
       <c r="B181">
@@ -4575,7 +4575,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aextremacables.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>extremacables.com</t>
         </is>
       </c>
       <c r="B182">
@@ -4594,7 +4594,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afci.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>fci.com</t>
         </is>
       </c>
       <c r="B183">
@@ -4613,7 +4613,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acompulink-usa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>compulink-usa.com</t>
         </is>
       </c>
       <c r="B184">
@@ -4632,7 +4632,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afischer-backus.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>fischer-backus.com</t>
         </is>
       </c>
       <c r="B185">
@@ -4651,7 +4651,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agci-global.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gci-global.com</t>
         </is>
       </c>
       <c r="B186">
@@ -4670,7 +4670,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahartelectric.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hartelectric.net</t>
         </is>
       </c>
       <c r="B187">
@@ -4689,7 +4689,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Airvine-electronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>irvine-electronics.com</t>
         </is>
       </c>
       <c r="B188">
@@ -4708,7 +4708,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alabarge.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>labarge.com</t>
         </is>
       </c>
       <c r="B189">
@@ -4727,7 +4727,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alibraind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>libraind.com</t>
         </is>
       </c>
       <c r="B190">
@@ -4746,7 +4746,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amicrowireus.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>microwireus.com</t>
         </is>
       </c>
       <c r="B191">
@@ -4765,7 +4765,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amiriansolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>miriansolutions.com</t>
         </is>
       </c>
       <c r="B192">
@@ -4784,7 +4784,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Attelectronics-ims.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ttelectronics-ims.com</t>
         </is>
       </c>
       <c r="B193">
@@ -4803,7 +4803,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apowellelectrosystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>powellelectrosystems.com</t>
         </is>
       </c>
       <c r="B194">
@@ -4822,7 +4822,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aproxyinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>proxyinc.com</t>
         </is>
       </c>
       <c r="B195">
@@ -4841,7 +4841,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aqpg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>qpg.com</t>
         </is>
       </c>
       <c r="B196">
@@ -4860,7 +4860,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asspmfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sspmfg.com</t>
         </is>
       </c>
       <c r="B197">
@@ -4879,7 +4879,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asenrasystems.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>senrasystems.us</t>
         </is>
       </c>
       <c r="B198">
@@ -4898,7 +4898,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aservatron.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>servatron.com</t>
         </is>
       </c>
       <c r="B199">
@@ -4917,7 +4917,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asesco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sesco.com</t>
         </is>
       </c>
       <c r="B200">
@@ -4936,7 +4936,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asuperiorharness.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>superiorharness.com</t>
         </is>
       </c>
       <c r="B201">
@@ -4955,7 +4955,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Addhgroup.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ddhgroup.net</t>
         </is>
       </c>
       <c r="B202">
@@ -4974,7 +4974,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atoddtool.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>toddtool.com</t>
         </is>
       </c>
       <c r="B203">
@@ -4993,7 +4993,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avaellc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>vaellc.com</t>
         </is>
       </c>
       <c r="B204">
@@ -5012,7 +5012,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avexos.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>vexos.com</t>
         </is>
       </c>
       <c r="B205">
@@ -5072,7 +5072,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aus.ecoflow.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>us.ecoflow.com</t>
         </is>
       </c>
       <c r="B3">
@@ -5091,7 +5091,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahounensolar.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hounensolar.com/</t>
         </is>
       </c>
       <c r="B4">
@@ -5110,7 +5110,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aquestrenewables.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>questrenewables.com</t>
         </is>
       </c>
       <c r="B5">
@@ -5129,7 +5129,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apmcind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>pmcind.com</t>
         </is>
       </c>
       <c r="B6">
@@ -5148,7 +5148,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asolaredge.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>solaredge.com</t>
         </is>
       </c>
       <c r="B7">
@@ -5167,7 +5167,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apaigeelectric.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>paigeelectric.com</t>
         </is>
       </c>
       <c r="B8">
@@ -5186,7 +5186,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aingeteam.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ingeteam.com</t>
         </is>
       </c>
       <c r="B9">
@@ -5205,7 +5205,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3ASol-Ark.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>Sol-Ark.com</t>
         </is>
       </c>
       <c r="B10">
@@ -5224,7 +5224,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acustom-goods.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>custom-goods.com/</t>
         </is>
       </c>
       <c r="B11">
@@ -5243,7 +5243,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aprestogeo.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>prestogeo.com</t>
         </is>
       </c>
       <c r="B12">
@@ -5262,7 +5262,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aunimacts.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>unimacts.com/</t>
         </is>
       </c>
       <c r="B13">
@@ -5281,7 +5281,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aimperialstar.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>imperialstar.com/</t>
         </is>
       </c>
       <c r="B14">
@@ -5300,7 +5300,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ansaienergy.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nsaienergy.com/</t>
         </is>
       </c>
       <c r="B15">
@@ -5319,7 +5319,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aanzarenewables.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>anzarenewables.com/</t>
         </is>
       </c>
       <c r="B16">
@@ -5338,7 +5338,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ababstcalland.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>babstcalland.com/</t>
         </is>
       </c>
       <c r="B17">
@@ -5357,7 +5357,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Azekelman.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>zekelman.com</t>
         </is>
       </c>
       <c r="B18">
@@ -5376,7 +5376,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avalmontsolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>valmontsolar.com</t>
         </is>
       </c>
       <c r="B19">
@@ -5395,7 +5395,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asolectria.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>solectria.com</t>
         </is>
       </c>
       <c r="B20">
@@ -5414,7 +5414,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Athornovasolar.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>thornovasolar.com/</t>
         </is>
       </c>
       <c r="B21">
@@ -5433,7 +5433,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaetsolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>aetsolar.com</t>
         </is>
       </c>
       <c r="B22">
@@ -5452,7 +5452,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apanelclaw.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>panelclaw.com</t>
         </is>
       </c>
       <c r="B23">
@@ -5471,7 +5471,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asnapnrack.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>snapnrack.com</t>
         </is>
       </c>
       <c r="B24">
@@ -5490,7 +5490,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Algsolarusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lgsolarusa.com</t>
         </is>
       </c>
       <c r="B25">
@@ -5509,7 +5509,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acertainteed.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>certainteed.com</t>
         </is>
       </c>
       <c r="B26">
@@ -5528,7 +5528,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aqcells.com%2Fus%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>qcells.com/us/</t>
         </is>
       </c>
       <c r="B27">
@@ -5547,7 +5547,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aunirac.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>unirac.com</t>
         </is>
       </c>
       <c r="B28">
@@ -5566,7 +5566,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agoshenstamping.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>goshenstamping.com/</t>
         </is>
       </c>
       <c r="B29">
@@ -5585,7 +5585,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Areliancepiles.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>reliancepiles.com/</t>
         </is>
       </c>
       <c r="B30">
@@ -5604,7 +5604,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asunfolding.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sunfolding.com/</t>
         </is>
       </c>
       <c r="B31">
@@ -5623,7 +5623,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aunicorn-sd.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>unicorn-sd.com</t>
         </is>
       </c>
       <c r="B32">
@@ -5642,7 +5642,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abdiweldedtubing.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>bdiweldedtubing.com/</t>
         </is>
       </c>
       <c r="B33">
@@ -5661,7 +5661,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asunmodo.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sunmodo.com</t>
         </is>
       </c>
       <c r="B34">
@@ -5680,7 +5680,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aatkore.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>atkore.com</t>
         </is>
       </c>
       <c r="B35">
@@ -5699,7 +5699,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aezsolarproducts.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ezsolarproducts.com/</t>
         </is>
       </c>
       <c r="B36">
@@ -5718,7 +5718,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaquathermindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>aquathermindustries.com</t>
         </is>
       </c>
       <c r="B37">
@@ -5737,7 +5737,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asuntech-power.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>suntech-power.com</t>
         </is>
       </c>
       <c r="B38">
@@ -5756,7 +5756,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arandrsolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>randrsolar.com</t>
         </is>
       </c>
       <c r="B39">
@@ -5775,7 +5775,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atigoenergy.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>tigoenergy.com/</t>
         </is>
       </c>
       <c r="B40">
@@ -5794,7 +5794,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3ASMA-America.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>SMA-America.com</t>
         </is>
       </c>
       <c r="B41">
@@ -5813,7 +5813,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atuv.com%2Fusa%2Fen%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>tuv.com/usa/en/</t>
         </is>
       </c>
       <c r="B42">
@@ -5832,7 +5832,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3AUSSteel.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>USSteel.com</t>
         </is>
       </c>
       <c r="B43">
@@ -5851,7 +5851,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aiceindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>iceindustries.com</t>
         </is>
       </c>
       <c r="B44">
@@ -5870,7 +5870,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaderisenergy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>aderisenergy.com</t>
         </is>
       </c>
       <c r="B45">
@@ -5889,7 +5889,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anucor.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nucor.com/</t>
         </is>
       </c>
       <c r="B46">
@@ -5908,7 +5908,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amincon.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>mincon.com/</t>
         </is>
       </c>
       <c r="B47">
@@ -5927,7 +5927,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adiscoverbattery.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>discoverbattery.com</t>
         </is>
       </c>
       <c r="B48">
@@ -5946,7 +5946,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aott.com%2Fen-us%2Fabout-us%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ott.com/en-us/about-us/</t>
         </is>
       </c>
       <c r="B49">
@@ -5965,7 +5965,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asundrumsolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sundrumsolar.com</t>
         </is>
       </c>
       <c r="B50">
@@ -5984,7 +5984,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alumetech.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lumetech.com/</t>
         </is>
       </c>
       <c r="B51">
@@ -6003,7 +6003,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awacker.com%2Fcms%2Fen%2Fwacker_group%2Fdivisions%2Fpolysilicon%2Fpolysilicon.jsp+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>wacker.com/cms/en/wacker_group/divisions/polysilicon/polysilicon.jsp</t>
         </is>
       </c>
       <c r="B52">
@@ -6022,7 +6022,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aschletter-group.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>schletter-group.com/</t>
         </is>
       </c>
       <c r="B53">
@@ -6041,7 +6041,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aamtim.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>amtim.com</t>
         </is>
       </c>
       <c r="B54">
@@ -6060,7 +6060,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3A1planetrecycling.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>1planetrecycling.com/</t>
         </is>
       </c>
       <c r="B55">
@@ -6079,7 +6079,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arecgroup.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>recgroup.com/</t>
         </is>
       </c>
       <c r="B56">
@@ -6098,7 +6098,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aapalternatives.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>apalternatives.com</t>
         </is>
       </c>
       <c r="B57">
@@ -6117,7 +6117,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aemaelectromechanics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>emaelectromechanics.com</t>
         </is>
       </c>
       <c r="B58">
@@ -6136,7 +6136,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arct-power.us%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>rct-power.us/</t>
         </is>
       </c>
       <c r="B59">
@@ -6155,7 +6155,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aenphaseenergy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>enphaseenergy.com</t>
         </is>
       </c>
       <c r="B60">
@@ -6174,7 +6174,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atrinasolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>trinasolar.com</t>
         </is>
       </c>
       <c r="B61">
@@ -6193,7 +6193,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Akbracking.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>kbracking.com</t>
         </is>
       </c>
       <c r="B62">
@@ -6212,7 +6212,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3As-5.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>s-5.com</t>
         </is>
       </c>
       <c r="B63">
@@ -6231,7 +6231,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ayinglisolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>yinglisolar.com</t>
         </is>
       </c>
       <c r="B64">
@@ -6250,7 +6250,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asouthwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>southwire.com</t>
         </is>
       </c>
       <c r="B65">
@@ -6269,7 +6269,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aoutbackpower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>outbackpower.com</t>
         </is>
       </c>
       <c r="B66">
@@ -6288,7 +6288,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amissionsolar.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>missionsolar.com/</t>
         </is>
       </c>
       <c r="B67">
@@ -6307,7 +6307,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amegawattgroup.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>megawattgroup.com/</t>
         </is>
       </c>
       <c r="B68">
@@ -6326,7 +6326,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aen.longi-solar.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>en.longi-solar.com/</t>
         </is>
       </c>
       <c r="B69">
@@ -6345,7 +6345,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aus.sunpower.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>us.sunpower.com/</t>
         </is>
       </c>
       <c r="B70">
@@ -6364,7 +6364,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amechatron-solar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>mechatron-solar.com</t>
         </is>
       </c>
       <c r="B71">
@@ -6383,7 +6383,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agenerac.com%2Fhome+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>generac.com/home</t>
         </is>
       </c>
       <c r="B72">
@@ -6402,7 +6402,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aferrovial.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ferrovial.com/</t>
         </is>
       </c>
       <c r="B73">
@@ -6421,7 +6421,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anrgsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nrgsystems.com</t>
         </is>
       </c>
       <c r="B74">
@@ -6440,7 +6440,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abentek.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>bentek.com</t>
         </is>
       </c>
       <c r="B75">
@@ -6459,7 +6459,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arisenenergy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>risenenergy.com</t>
         </is>
       </c>
       <c r="B76">
@@ -6478,7 +6478,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afulcrum3d.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>fulcrum3d.com</t>
         </is>
       </c>
       <c r="B77">
@@ -6497,7 +6497,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asolareverusa.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>solareverusa.com/</t>
         </is>
       </c>
       <c r="B78">
@@ -6516,7 +6516,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aworld4solar.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>world4solar.com/</t>
         </is>
       </c>
       <c r="B79">
@@ -6535,7 +6535,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aoptivolt.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>optivolt.com/</t>
         </is>
       </c>
       <c r="B80">
@@ -6554,7 +6554,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asoltec.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>soltec.com/</t>
         </is>
       </c>
       <c r="B81">
@@ -6573,7 +6573,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acngear.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cngear.com/</t>
         </is>
       </c>
       <c r="B82">
@@ -6592,7 +6592,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acanadiansolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>canadiansolar.com</t>
         </is>
       </c>
       <c r="B83">
@@ -6611,7 +6611,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alandscapehub.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>landscapehub.com</t>
         </is>
       </c>
       <c r="B84">
@@ -6630,7 +6630,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abasco.com%2Fhome.html+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>basco.com/home.html</t>
         </is>
       </c>
       <c r="B85">
@@ -6649,7 +6649,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asmartsolar.com.tr+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>smartsolar.com.tr</t>
         </is>
       </c>
       <c r="B86">
@@ -6668,7 +6668,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aspitzer-energy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>spitzer-energy.com</t>
         </is>
       </c>
       <c r="B87">
@@ -6687,7 +6687,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asunbeltsolomon.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sunbeltsolomon.com/</t>
         </is>
       </c>
       <c r="B88">
@@ -6706,7 +6706,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aluxpowertek.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>luxpowertek.com</t>
         </is>
       </c>
       <c r="B89">
@@ -6725,7 +6725,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avsun-solar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>vsun-solar.com</t>
         </is>
       </c>
       <c r="B90">
@@ -6744,7 +6744,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aluminsmart.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>luminsmart.com/</t>
         </is>
       </c>
       <c r="B91">
@@ -6763,7 +6763,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atrackersled.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>trackersled.com</t>
         </is>
       </c>
       <c r="B92">
@@ -6782,7 +6782,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asmartflowersolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>smartflowersolar.com</t>
         </is>
       </c>
       <c r="B93">
@@ -6801,7 +6801,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ansolar.net%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nsolar.net/</t>
         </is>
       </c>
       <c r="B94">
@@ -6820,7 +6820,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avoltage-llc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>voltage-llc.com</t>
         </is>
       </c>
       <c r="B95">
@@ -6839,7 +6839,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agamechangeracking.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gamechangeracking.com</t>
         </is>
       </c>
       <c r="B96">
@@ -6858,7 +6858,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alindsayrenewables.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lindsayrenewables.com</t>
         </is>
       </c>
       <c r="B97">
@@ -6877,7 +6877,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avikramsolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>vikramsolar.com</t>
         </is>
       </c>
       <c r="B98">
@@ -6896,7 +6896,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asolarswitching.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>solarswitching.com</t>
         </is>
       </c>
       <c r="B99">
@@ -6915,7 +6915,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ajasolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>jasolar.com</t>
         </is>
       </c>
       <c r="B100">
@@ -6934,7 +6934,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaffordablewm.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>affordablewm.com</t>
         </is>
       </c>
       <c r="B101">
@@ -6953,7 +6953,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aeverest-solarsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>everest-solarsystems.com</t>
         </is>
       </c>
       <c r="B102">
@@ -6972,7 +6972,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amidnitesolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>midnitesolar.com</t>
         </is>
       </c>
       <c r="B103">
@@ -6991,7 +6991,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aprioritywire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>prioritywire.com</t>
         </is>
       </c>
       <c r="B104">
@@ -7010,7 +7010,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avonardenne.us%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>vonardenne.us/</t>
         </is>
       </c>
       <c r="B105">
@@ -7029,7 +7029,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aconstructioninnovations.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>constructioninnovations.com</t>
         </is>
       </c>
       <c r="B106">
@@ -7048,7 +7048,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afronius.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>fronius.com</t>
         </is>
       </c>
       <c r="B107">
@@ -7067,7 +7067,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amisa.com%2Fdefault.asp+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>misa.com/default.asp</t>
         </is>
       </c>
       <c r="B108">
@@ -7086,7 +7086,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arbisolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>rbisolar.com</t>
         </is>
       </c>
       <c r="B109">
@@ -7105,7 +7105,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arayonier.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>rayonier.com/</t>
         </is>
       </c>
       <c r="B110">
@@ -7124,7 +7124,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aus.growatt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>us.growatt.com</t>
         </is>
       </c>
       <c r="B111">
@@ -7143,7 +7143,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aastro-energy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>astro-energy.com</t>
         </is>
       </c>
       <c r="B112">
@@ -7162,7 +7162,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afortisalliance.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>fortisalliance.com</t>
         </is>
       </c>
       <c r="B113">
@@ -7181,7 +7181,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aroof-tech.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>roof-tech.us</t>
         </is>
       </c>
       <c r="B114">
@@ -7200,7 +7200,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avishakhapolyfab.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>vishakhapolyfab.com/</t>
         </is>
       </c>
       <c r="B115">
@@ -7219,7 +7219,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ajinkosolar.us%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>jinkosolar.us/</t>
         </is>
       </c>
       <c r="B116">
@@ -7238,7 +7238,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aftcsolar.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ftcsolar.com/</t>
         </is>
       </c>
       <c r="B117">
@@ -7257,7 +7257,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Akinematicsmfg.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>kinematicsmfg.com/</t>
         </is>
       </c>
       <c r="B118">
@@ -7276,7 +7276,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Areliablepower.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>reliablepower.com/</t>
         </is>
       </c>
       <c r="B119">
@@ -7295,7 +7295,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anps.cc+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nps.cc</t>
         </is>
       </c>
       <c r="B120">
@@ -7314,7 +7314,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atalesun.com%2Fen+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>talesun.com/en</t>
         </is>
       </c>
       <c r="B121">
@@ -7333,7 +7333,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abovietsolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>bovietsolar.com</t>
         </is>
       </c>
       <c r="B122">
@@ -7352,7 +7352,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aalexussolar.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>alexussolar.com/</t>
         </is>
       </c>
       <c r="B123">
@@ -7371,7 +7371,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abuyawg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>buyawg.com</t>
         </is>
       </c>
       <c r="B124">
@@ -7390,7 +7390,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asintoninstruments.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sintoninstruments.com/</t>
         </is>
       </c>
       <c r="B125">
@@ -7409,7 +7409,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aphazebreak.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>phazebreak.com</t>
         </is>
       </c>
       <c r="B126">
@@ -7428,7 +7428,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agayknorthamerica.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gayknorthamerica.com/</t>
         </is>
       </c>
       <c r="B127">
@@ -7447,7 +7447,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aamericangroundscrew.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>americangroundscrew.com</t>
         </is>
       </c>
       <c r="B128">
@@ -7466,7 +7466,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anextracker.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nextracker.com/</t>
         </is>
       </c>
       <c r="B129">
@@ -7485,7 +7485,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afortresspower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>fortresspower.com</t>
         </is>
       </c>
       <c r="B130">
@@ -7504,7 +7504,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agsmwinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gsmwinc.com</t>
         </is>
       </c>
       <c r="B131">
@@ -7523,7 +7523,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arevivepv.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>revivepv.com</t>
         </is>
       </c>
       <c r="B132">
@@ -7540,11 +7540,6 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?q=inurl%3Anan+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
-        </is>
-      </c>
       <c r="B133">
         <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anan+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
         <v/>
@@ -7561,7 +7556,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aginlong.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ginlong.com</t>
         </is>
       </c>
       <c r="B134">
@@ -7580,7 +7575,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aus.fox-ess.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>us.fox-ess.com/</t>
         </is>
       </c>
       <c r="B135">
@@ -7599,7 +7594,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asolarfoundationsusa.com%2Findex.php+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>solarfoundationsusa.com/index.php</t>
         </is>
       </c>
       <c r="B136">
@@ -7618,7 +7613,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asungrow-na.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sungrow-na.com</t>
         </is>
       </c>
       <c r="B137">
@@ -7637,7 +7632,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ashoals.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>shoals.com</t>
         </is>
       </c>
       <c r="B138">
@@ -7656,7 +7651,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aprofileproducts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>profileproducts.com</t>
         </is>
       </c>
       <c r="B139">
@@ -7675,7 +7670,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asolarpost.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>solarpost.com/</t>
         </is>
       </c>
       <c r="B140">
@@ -7694,7 +7689,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahyperion-solar.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hyperion-solar.com/</t>
         </is>
       </c>
       <c r="B141">
@@ -7713,7 +7708,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anorsun.no+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>norsun.no</t>
         </is>
       </c>
       <c r="B142">
@@ -7732,7 +7727,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adcesolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>dcesolar.com</t>
         </is>
       </c>
       <c r="B143">
@@ -7751,7 +7746,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asolarflexrack.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>solarflexrack.com/</t>
         </is>
       </c>
       <c r="B144">
@@ -7770,7 +7765,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anoriaenergy.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>noriaenergy.com/</t>
         </is>
       </c>
       <c r="B145">
@@ -7789,7 +7784,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agafcommercialsolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gafcommercialsolar.com</t>
         </is>
       </c>
       <c r="B146">
@@ -7808,7 +7803,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aopsun.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>opsun.com</t>
         </is>
       </c>
       <c r="B147">
@@ -7827,7 +7822,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acabsolar%40cabproducts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cabsolar@cabproducts.com</t>
         </is>
       </c>
       <c r="B148">
@@ -7846,7 +7841,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aen.pylontech.com.cn%2Findex.aspx+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>en.pylontech.com.cn/index.aspx</t>
         </is>
       </c>
       <c r="B149">
@@ -7865,7 +7860,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asunearthinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sunearthinc.com</t>
         </is>
       </c>
       <c r="B150">
@@ -7884,7 +7879,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aecofastensolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ecofastensolar.com</t>
         </is>
       </c>
       <c r="B151">
@@ -7903,7 +7898,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asinotecsolar.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sinotecsolar.com/</t>
         </is>
       </c>
       <c r="B152">
@@ -7922,7 +7917,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3ASiballc.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>Siballc.net</t>
         </is>
       </c>
       <c r="B153">
@@ -7941,7 +7936,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atmeic.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>tmeic.com/</t>
         </is>
       </c>
       <c r="B154">
@@ -7960,7 +7955,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asiemens.com%2Fglobal%2Fen.html+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>siemens.com/global/en.html</t>
         </is>
       </c>
       <c r="B155">
@@ -7979,7 +7974,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aeng.hhigreen.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>eng.hhigreen.com/</t>
         </is>
       </c>
       <c r="B156">
@@ -7996,11 +7991,6 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?q=inurl%3Anan+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
-        </is>
-      </c>
       <c r="B157">
         <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anan+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
         <v/>
@@ -8017,7 +8007,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asc-solar.com.cn+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sc-solar.com.cn</t>
         </is>
       </c>
       <c r="B158">
@@ -8036,7 +8026,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Astreetleaf.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>streetleaf.com</t>
         </is>
       </c>
       <c r="B159">
@@ -8055,7 +8045,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ascwcommerce.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>scwcommerce.com/</t>
         </is>
       </c>
       <c r="B160">
@@ -8074,7 +8064,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aproactivegroup.ca%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>proactivegroup.ca/</t>
         </is>
       </c>
       <c r="B161">
@@ -8093,7 +8083,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aampt.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ampt.com/</t>
         </is>
       </c>
       <c r="B162">
@@ -8112,7 +8102,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aphiladelphia-solar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>philadelphia-solar.com</t>
         </is>
       </c>
       <c r="B163">
@@ -8131,7 +8121,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acatl.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>catl.com</t>
         </is>
       </c>
       <c r="B164">
@@ -8150,7 +8140,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aendurans.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>endurans.com</t>
         </is>
       </c>
       <c r="B165">
@@ -8169,7 +8159,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ameyerburger.com%2Fen%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>meyerburger.com/en/</t>
         </is>
       </c>
       <c r="B166">
@@ -8188,7 +8178,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aomcosolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>omcosolar.com</t>
         </is>
       </c>
       <c r="B167">
@@ -8207,7 +8197,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apointguardenergy.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>pointguardenergy.com/</t>
         </is>
       </c>
       <c r="B168">
@@ -8226,7 +8216,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ajm-steel.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>jm-steel.com</t>
         </is>
       </c>
       <c r="B169">
@@ -8245,7 +8235,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arepsol.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>repsol.com</t>
         </is>
       </c>
       <c r="B170">
@@ -8264,7 +8254,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asolar.kernsteel.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>solar.kernsteel.com/</t>
         </is>
       </c>
       <c r="B171">
@@ -8283,7 +8273,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aarraytechinc.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>arraytechinc.com/</t>
         </is>
       </c>
       <c r="B172">
@@ -8302,7 +8292,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aa-rent.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>a-rent.com</t>
         </is>
       </c>
       <c r="B173">
@@ -8321,7 +8311,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asigmaco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sigmaco.com</t>
         </is>
       </c>
       <c r="B174">
@@ -8340,7 +8330,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aerthos.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>erthos.com/</t>
         </is>
       </c>
       <c r="B175">
@@ -8359,7 +8349,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Akinematicsmfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>kinematicsmfg.com</t>
         </is>
       </c>
       <c r="B176">
@@ -8378,7 +8368,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asignaturesolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>signaturesolar.com</t>
         </is>
       </c>
       <c r="B177">
@@ -8397,7 +8387,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agautamsolar.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gautamsolar.com/</t>
         </is>
       </c>
       <c r="B178">
@@ -8416,7 +8406,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apegasussolar.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>pegasussolar.com/</t>
         </is>
       </c>
       <c r="B179">
@@ -8435,7 +8425,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Azeitview.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>zeitview.com/</t>
         </is>
       </c>
       <c r="B180">
@@ -8454,7 +8444,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aterrasmart.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>terrasmart.com</t>
         </is>
       </c>
       <c r="B181">
@@ -8473,7 +8463,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anevados.co%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nevados.co/</t>
         </is>
       </c>
       <c r="B182">
@@ -8492,7 +8482,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aironridge.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ironridge.com</t>
         </is>
       </c>
       <c r="B183">
@@ -8511,7 +8501,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahubbell.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hubbell.com</t>
         </is>
       </c>
       <c r="B184">
@@ -8530,7 +8520,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amidwestsalesconsultants.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>midwestsalesconsultants.com/</t>
         </is>
       </c>
       <c r="B185">
@@ -8549,7 +8539,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apanduit.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>panduit.com</t>
         </is>
       </c>
       <c r="B186">
@@ -8568,7 +8558,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahammondpowersolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hammondpowersolutions.com</t>
         </is>
       </c>
       <c r="B187">
@@ -8587,7 +8577,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alunarenergy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lunarenergy.com</t>
         </is>
       </c>
       <c r="B188">
@@ -8606,7 +8596,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aunlimitenergy.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>unlimitenergy.com/</t>
         </is>
       </c>
       <c r="B189">
@@ -8625,7 +8615,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agamesaelectric.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gamesaelectric.com</t>
         </is>
       </c>
       <c r="B190">
@@ -8644,7 +8634,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apower-electronics.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>power-electronics.com/</t>
         </is>
       </c>
       <c r="B191">
@@ -8663,7 +8653,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asilfab.ca+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>silfab.ca</t>
         </is>
       </c>
       <c r="B192">
@@ -8682,7 +8672,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aracerock.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>racerock.com</t>
         </is>
       </c>
       <c r="B193">
@@ -8701,7 +8691,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amilwaukeetool.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>milwaukeetool.com/</t>
         </is>
       </c>
       <c r="B194">
@@ -8720,7 +8710,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aweidmueller.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>weidmueller.com</t>
         </is>
       </c>
       <c r="B195">
@@ -8739,7 +8729,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avermeer.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>vermeer.com</t>
         </is>
       </c>
       <c r="B196">
@@ -8758,7 +8748,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aideematec.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ideematec.com/</t>
         </is>
       </c>
       <c r="B197">
@@ -8777,7 +8767,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acpsglass.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cpsglass.com/</t>
         </is>
       </c>
       <c r="B198">
@@ -8796,7 +8786,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Achintpower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>chintpower.com</t>
         </is>
       </c>
       <c r="B199">
@@ -8815,7 +8805,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahscpoly.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hscpoly.com</t>
         </is>
       </c>
       <c r="B200">
@@ -8834,7 +8824,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apvhardware.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>pvhardware.com/</t>
         </is>
       </c>
       <c r="B201">
@@ -8853,7 +8843,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alselectricamerica.com%2F%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lselectricamerica.com//</t>
         </is>
       </c>
       <c r="B202">
@@ -8872,7 +8862,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aliteon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>liteon.com</t>
         </is>
       </c>
       <c r="B203">
@@ -8891,7 +8881,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asonalisolar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sonalisolar.com</t>
         </is>
       </c>
       <c r="B204">
@@ -8910,7 +8900,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahoymiles.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hoymiles.com</t>
         </is>
       </c>
       <c r="B205">
@@ -8929,7 +8919,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaerocompact.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>aerocompact.com</t>
         </is>
       </c>
       <c r="B206">
@@ -8948,7 +8938,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Astatensolar.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>statensolar.com/</t>
         </is>
       </c>
       <c r="B207">
@@ -8967,7 +8957,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agstarsolar.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gstarsolar.com/</t>
         </is>
       </c>
       <c r="B208">
@@ -8986,7 +8976,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awtecenergy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>wtecenergy.com</t>
         </is>
       </c>
       <c r="B209">
@@ -9025,7 +9015,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Website URL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -9047,7 +9037,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaosmith.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>aosmith.com/</t>
         </is>
       </c>
       <c r="B3">
@@ -9066,7 +9056,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anexans.ca+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nexans.ca</t>
         </is>
       </c>
       <c r="B4">
@@ -9085,7 +9075,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aadvancedcableties.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>advancedcableties.com</t>
         </is>
       </c>
       <c r="B5">
@@ -9104,7 +9094,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aadventechinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>adventechinc.com</t>
         </is>
       </c>
       <c r="B6">
@@ -9123,7 +9113,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amedimg.agfa.com%2Fmain%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>medimg.agfa.com/main/</t>
         </is>
       </c>
       <c r="B7">
@@ -9142,7 +9132,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aalliedmoulded.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>alliedmoulded.com</t>
         </is>
       </c>
       <c r="B8">
@@ -9161,7 +9151,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aambersi.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ambersi.com</t>
         </is>
       </c>
       <c r="B9">
@@ -9180,7 +9170,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aanacondasealtite.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>anacondasealtite.com/</t>
         </is>
       </c>
       <c r="B10">
@@ -9199,7 +9189,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aannalise.ai%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>annalise.ai/</t>
         </is>
       </c>
       <c r="B11">
@@ -9218,7 +9208,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aapcom.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>apcom.com/</t>
         </is>
       </c>
       <c r="B12">
@@ -9237,7 +9227,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aconnectder.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>connectder.com</t>
         </is>
       </c>
       <c r="B13">
@@ -9256,7 +9246,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aask-power.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ask-power.com/</t>
         </is>
       </c>
       <c r="B14">
@@ -9275,7 +9265,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aassaabloydss.com%2Fen+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>assaabloydss.com/en</t>
         </is>
       </c>
       <c r="B15">
@@ -9294,7 +9284,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aatkore.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>atkore.com</t>
         </is>
       </c>
       <c r="B16">
@@ -9313,7 +9303,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aatlaslightingproducts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>atlaslightingproducts.com</t>
         </is>
       </c>
       <c r="B17">
@@ -9332,7 +9322,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aradiologysolutions.bayer.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>radiologysolutions.bayer.com/</t>
         </is>
       </c>
       <c r="B18">
@@ -9351,7 +9341,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abiogen.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>biogen.com</t>
         </is>
       </c>
       <c r="B19">
@@ -9370,7 +9360,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abisongear.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>bisongear.com/</t>
         </is>
       </c>
       <c r="B20">
@@ -9389,7 +9379,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ablueearthdiagnostics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>blueearthdiagnostics.com</t>
         </is>
       </c>
       <c r="B21">
@@ -9408,7 +9398,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aboltswitch.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>boltswitch.com</t>
         </is>
       </c>
       <c r="B22">
@@ -9427,7 +9417,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aboschsecurity.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>boschsecurity.us</t>
         </is>
       </c>
       <c r="B23">
@@ -9446,7 +9436,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abracco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>bracco.com</t>
         </is>
       </c>
       <c r="B24">
@@ -9465,7 +9455,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abraeburnonline.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>braeburnonline.com</t>
         </is>
       </c>
       <c r="B25">
@@ -9484,7 +9474,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abrookcromptonna.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>brookcromptonna.com</t>
         </is>
       </c>
       <c r="B26">
@@ -9503,7 +9493,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awestcomncs.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>westcomncs.com</t>
         </is>
       </c>
       <c r="B27">
@@ -9522,7 +9512,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aus.medical.canon%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>us.medical.canon/</t>
         </is>
       </c>
       <c r="B28">
@@ -9541,7 +9531,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acantexinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cantexinc.com</t>
         </is>
       </c>
       <c r="B29">
@@ -9560,7 +9550,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acaptionhealth.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>captionhealth.com/</t>
         </is>
       </c>
       <c r="B30">
@@ -9579,7 +9569,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acardinalhealth.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cardinalhealth.com</t>
         </is>
       </c>
       <c r="B31">
@@ -9598,7 +9588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acbmlighting.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cbmlighting.com/</t>
         </is>
       </c>
       <c r="B32">
@@ -9617,7 +9607,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acerrowire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cerrowire.com</t>
         </is>
       </c>
       <c r="B33">
@@ -9636,7 +9626,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acerveautechnologies.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cerveautechnologies.com/</t>
         </is>
       </c>
       <c r="B34">
@@ -9655,7 +9645,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Achalfant-obo.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>chalfant-obo.com</t>
         </is>
       </c>
       <c r="B35">
@@ -9674,7 +9664,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Achampionfiberglass.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>championfiberglass.com</t>
         </is>
       </c>
       <c r="B36">
@@ -9693,7 +9683,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Achampcable.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>champcable.com/</t>
         </is>
       </c>
       <c r="B37">
@@ -9712,7 +9702,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acitel.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>citel.us</t>
         </is>
       </c>
       <c r="B38">
@@ -9731,7 +9721,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aclaripi.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>claripi.com</t>
         </is>
       </c>
       <c r="B39">
@@ -9750,7 +9740,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acolonialwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>colonialwire.com</t>
         </is>
       </c>
       <c r="B40">
@@ -9769,7 +9759,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acomtrancorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>comtrancorp.com</t>
         </is>
       </c>
       <c r="B41">
@@ -9788,7 +9778,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adelta-americas.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>delta-americas.com</t>
         </is>
       </c>
       <c r="B42">
@@ -9807,7 +9797,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aconstructioninnovations.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>constructioninnovations.com</t>
         </is>
       </c>
       <c r="B43">
@@ -9826,7 +9816,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Actlsys.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ctlsys.com/</t>
         </is>
       </c>
       <c r="B44">
@@ -9845,7 +9835,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acopeland.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>copeland.com</t>
         </is>
       </c>
       <c r="B45">
@@ -9864,7 +9854,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acopperweld.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>copperweld.com</t>
         </is>
       </c>
       <c r="B46">
@@ -9883,7 +9873,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acreelighting.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>creelighting.com</t>
         </is>
       </c>
       <c r="B47">
@@ -9902,7 +9892,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acummins.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>cummins.com</t>
         </is>
       </c>
       <c r="B48">
@@ -9921,7 +9911,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acuriumpharma.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>curiumpharma.com</t>
         </is>
       </c>
       <c r="B49">
@@ -9940,7 +9930,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aled.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>led.com/</t>
         </is>
       </c>
       <c r="B50">
@@ -9959,7 +9949,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adaktronics.com%2Ftransportation+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>daktronics.com/transportation</t>
         </is>
       </c>
       <c r="B51">
@@ -9978,7 +9968,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adanfoss.com%2Fen-us%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>danfoss.com/en-us/</t>
         </is>
       </c>
       <c r="B52">
@@ -9997,7 +9987,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3A617-420-1150+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>617-420-1150</t>
         </is>
       </c>
       <c r="B53">
@@ -10016,7 +10006,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abrooksutility.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>brooksutility.com</t>
         </is>
       </c>
       <c r="B54">
@@ -10035,7 +10025,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adentinstruments.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>dentinstruments.com/</t>
         </is>
       </c>
       <c r="B55">
@@ -10054,7 +10044,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adialight.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>dialight.com</t>
         </is>
       </c>
       <c r="B56">
@@ -10073,7 +10063,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adupont.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>dupont.com</t>
         </is>
       </c>
       <c r="B57">
@@ -10092,7 +10082,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aduracell.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>duracell.com</t>
         </is>
       </c>
       <c r="B58">
@@ -10111,7 +10101,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Araycap.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>raycap.com</t>
         </is>
       </c>
       <c r="B59">
@@ -10130,7 +10120,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aeditraffic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>editraffic.com</t>
         </is>
       </c>
       <c r="B60">
@@ -10149,7 +10139,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aeiko.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>eiko.com</t>
         </is>
       </c>
       <c r="B61">
@@ -10168,7 +10158,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aus.eisai.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>us.eisai.com</t>
         </is>
       </c>
       <c r="B62">
@@ -10187,7 +10177,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aelantas.com%2Fpdg%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>elantas.com/pdg/</t>
         </is>
       </c>
       <c r="B63">
@@ -10206,7 +10196,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aelectriflex.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>electriflex.com/</t>
         </is>
       </c>
       <c r="B64">
@@ -10225,7 +10215,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aelectroswitch.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>electroswitch.com</t>
         </is>
       </c>
       <c r="B65">
@@ -10244,7 +10234,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aelektrisola.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>elektrisola.com</t>
         </is>
       </c>
       <c r="B66">
@@ -10263,7 +10253,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alilly.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lilly.com</t>
         </is>
       </c>
       <c r="B67">
@@ -10282,7 +10272,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aelliottcontrol.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>elliottcontrol.com</t>
         </is>
       </c>
       <c r="B68">
@@ -10301,7 +10291,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aemerson.com%2Fen-us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>emerson.com/en-us</t>
         </is>
       </c>
       <c r="B69">
@@ -10320,7 +10310,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aservicewire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>servicewire.com</t>
         </is>
       </c>
       <c r="B70">
@@ -10339,7 +10329,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aenergizer.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>energizer.com</t>
         </is>
       </c>
       <c r="B71">
@@ -10358,7 +10348,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aenerlites.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>enerlites.com/</t>
         </is>
       </c>
       <c r="B72">
@@ -10377,7 +10367,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aeeiusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>eeiusa.com</t>
         </is>
       </c>
       <c r="B73">
@@ -10396,7 +10386,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aenigmabiomedicalgroup.ca%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>enigmabiomedicalgroup.ca/</t>
         </is>
       </c>
       <c r="B74">
@@ -10415,7 +10405,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aeose.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>eose.com/</t>
         </is>
       </c>
       <c r="B75">
@@ -10434,7 +10424,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aesabna.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>esabna.com</t>
         </is>
       </c>
       <c r="B76">
@@ -10453,7 +10443,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aesaoteusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>esaoteusa.com</t>
         </is>
       </c>
       <c r="B77">
@@ -10472,7 +10462,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aessexfurukawa.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>essexfurukawa.com/</t>
         </is>
       </c>
       <c r="B78">
@@ -10491,7 +10481,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aexemfoam.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>exemfoam.com/</t>
         </is>
       </c>
       <c r="B79">
@@ -10510,7 +10500,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aexro.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>exro.com/</t>
         </is>
       </c>
       <c r="B80">
@@ -10529,7 +10519,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ae-zweld.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>e-zweld.com/</t>
         </is>
       </c>
       <c r="B81">
@@ -10548,7 +10538,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amynaturaled.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>mynaturaled.com</t>
         </is>
       </c>
       <c r="B82">
@@ -10567,7 +10557,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afederalpacific.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>federalpacific.com</t>
         </is>
       </c>
       <c r="B83">
@@ -10586,7 +10576,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afeit.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>feit.com</t>
         </is>
       </c>
       <c r="B84">
@@ -10605,7 +10595,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afenecon.de%2Fen%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>fenecon.de/en/</t>
         </is>
       </c>
       <c r="B85">
@@ -10624,7 +10614,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afigarosensor.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>figarosensor.com</t>
         </is>
       </c>
       <c r="B86">
@@ -10643,7 +10633,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Afiretrol.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>firetrol.com/</t>
         </is>
       </c>
       <c r="B87">
@@ -10662,7 +10652,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aamericas.fujielectric.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>americas.fujielectric.com/</t>
         </is>
       </c>
       <c r="B88">
@@ -10681,7 +10671,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agwelec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gwelec.com</t>
         </is>
       </c>
       <c r="B89">
@@ -10700,7 +10690,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agalvanelectrical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>galvanelectrical.com</t>
         </is>
       </c>
       <c r="B90">
@@ -10719,7 +10709,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agegridsolutions.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gegridsolutions.com/</t>
         </is>
       </c>
       <c r="B91">
@@ -10738,7 +10728,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agehealthcare.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gehealthcare.com/</t>
         </is>
       </c>
       <c r="B92">
@@ -10757,7 +10747,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agemotorswolong.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gemotorswolong.com/</t>
         </is>
       </c>
       <c r="B93">
@@ -10776,7 +10766,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agelighting.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gelighting.com/</t>
         </is>
       </c>
       <c r="B94">
@@ -10795,7 +10785,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agenerac.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>generac.com</t>
         </is>
       </c>
       <c r="B95">
@@ -10814,7 +10804,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agentex.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gentex.com</t>
         </is>
       </c>
       <c r="B96">
@@ -10833,7 +10823,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agilbertinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gilbertinc.com</t>
         </is>
       </c>
       <c r="B97">
@@ -10852,7 +10842,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aaifittings.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>aifittings.com</t>
         </is>
       </c>
       <c r="B98">
@@ -10871,7 +10861,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amarmonutility.com%2FMoldedProducts.aspx+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>marmonutility.com/MoldedProducts.aspx</t>
         </is>
       </c>
       <c r="B99">
@@ -10890,7 +10880,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahitachienergy.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hitachienergy.com/</t>
         </is>
       </c>
       <c r="B100">
@@ -10909,7 +10899,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahologic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hologic.com</t>
         </is>
       </c>
       <c r="B101">
@@ -10928,7 +10918,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Abuildings.honeywell.com%2Fus%2Fen%2Fproducts%2Ffire%2Ffire-lite+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>buildings.honeywell.com/us/en/products/fire/fire-lite</t>
         </is>
       </c>
       <c r="B102">
@@ -10947,7 +10937,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asmartenergy.honeywell.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>smartenergy.honeywell.com</t>
         </is>
       </c>
       <c r="B103">
@@ -10966,7 +10956,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahorizonsignal.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>horizonsignal.com</t>
         </is>
       </c>
       <c r="B104">
@@ -10985,7 +10975,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahsifiresafety.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hsifiresafety.com/</t>
         </is>
       </c>
       <c r="B105">
@@ -11004,7 +10994,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ahypertherm.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>hypertherm.com</t>
         </is>
       </c>
       <c r="B106">
@@ -11023,7 +11013,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aidealindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>idealindustries.com</t>
         </is>
       </c>
       <c r="B107">
@@ -11042,7 +11032,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ailsco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ilsco.com</t>
         </is>
       </c>
       <c r="B108">
@@ -11061,7 +11051,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aiemfg.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>iemfg.com/</t>
         </is>
       </c>
       <c r="B109">
@@ -11080,7 +11070,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agoinfinitum.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>goinfinitum.com/</t>
         </is>
       </c>
       <c r="B110">
@@ -11099,7 +11089,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aintensepowersolutions.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>intensepowersolutions.com/</t>
         </is>
       </c>
       <c r="B111">
@@ -11118,7 +11108,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aionetix.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ionetix.com/</t>
         </is>
       </c>
       <c r="B112">
@@ -11137,7 +11127,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aipexna.com%2Fusa+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ipexna.com/usa</t>
         </is>
       </c>
       <c r="B113">
@@ -11156,7 +11146,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aisovolta.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>isovolta.com/</t>
         </is>
       </c>
       <c r="B114">
@@ -11175,7 +11165,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aitenindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>itenindustries.com</t>
         </is>
       </c>
       <c r="B115">
@@ -11194,7 +11184,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aitm-radiopharma.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>itm-radiopharma.com</t>
         </is>
       </c>
       <c r="B116">
@@ -11213,7 +11203,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aitron.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>itron.com/</t>
         </is>
       </c>
       <c r="B117">
@@ -11232,7 +11222,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ajandlmanufacturing.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>jandlmanufacturing.com/</t>
         </is>
       </c>
       <c r="B118">
@@ -11251,7 +11241,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ajie-drives.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>jie-drives.com/</t>
         </is>
       </c>
       <c r="B119">
@@ -11270,7 +11260,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Acrashcushions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>crashcushions.com</t>
         </is>
       </c>
       <c r="B120">
@@ -11289,7 +11279,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ajohnsoncontrols.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>johnsoncontrols.com/</t>
         </is>
       </c>
       <c r="B121">
@@ -11308,7 +11298,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adraximage.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>draximage.com/</t>
         </is>
       </c>
       <c r="B122">
@@ -11327,7 +11317,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ajuddwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>juddwire.com</t>
         </is>
       </c>
       <c r="B123">
@@ -11346,7 +11336,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Akeltroncorp.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>keltroncorp.com/</t>
         </is>
       </c>
       <c r="B124">
@@ -11365,7 +11355,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Akheironmed.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>kheironmed.com/</t>
         </is>
       </c>
       <c r="B125">
@@ -11384,7 +11374,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ak-line.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>k-line.net</t>
         </is>
       </c>
       <c r="B126">
@@ -11403,7 +11393,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Akonicaminolta.com%2Fmedicalusa%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>konicaminolta.com/medicalusa/</t>
         </is>
       </c>
       <c r="B127">
@@ -11422,7 +11412,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Akromek.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>kromek.com/</t>
         </is>
       </c>
       <c r="B128">
@@ -11441,7 +11431,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alhdottie.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lhdottie.com/</t>
         </is>
       </c>
       <c r="B129">
@@ -11460,7 +11450,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alafertna.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lafertna.com/</t>
         </is>
       </c>
       <c r="B130">
@@ -11479,7 +11469,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alaitek.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>laitek.com</t>
         </is>
       </c>
       <c r="B131">
@@ -11498,7 +11488,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alandisgyr.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>landisgyr.com</t>
         </is>
       </c>
       <c r="B132">
@@ -11517,7 +11507,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alantheus.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lantheus.com</t>
         </is>
       </c>
       <c r="B133">
@@ -11536,7 +11526,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alappinsulator.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lappinsulator.com</t>
         </is>
       </c>
       <c r="B134">
@@ -11555,7 +11545,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aokonite.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>okonite.com</t>
         </is>
       </c>
       <c r="B135">
@@ -11574,7 +11564,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alegrand.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>legrand.us</t>
         </is>
       </c>
       <c r="B136">
@@ -11593,7 +11583,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aleviton.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>leviton.com</t>
         </is>
       </c>
       <c r="B137">
@@ -11612,7 +11602,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aguerbet.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>guerbet.com/</t>
         </is>
       </c>
       <c r="B138">
@@ -11631,7 +11621,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alife-mi.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>life-mi.com/</t>
         </is>
       </c>
       <c r="B139">
@@ -11650,7 +11640,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alincolnelectric.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lincolnelectric.com</t>
         </is>
       </c>
       <c r="B140">
@@ -11669,7 +11659,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aep-us.mersen.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ep-us.mersen.com</t>
         </is>
       </c>
       <c r="B141">
@@ -11688,7 +11678,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alunit.io%2Fen%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lunit.io/en/</t>
         </is>
       </c>
       <c r="B142">
@@ -11707,7 +11697,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alutron.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>lutron.com</t>
         </is>
       </c>
       <c r="B143">
@@ -11726,7 +11716,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amacleanpower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>macleanpower.com</t>
         </is>
       </c>
       <c r="B144">
@@ -11745,7 +11735,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amarinetechwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>marinetechwire.com</t>
         </is>
       </c>
       <c r="B145">
@@ -11764,7 +11754,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amarmon-ad.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>marmon-ad.com/</t>
         </is>
       </c>
       <c r="B146">
@@ -11783,7 +11773,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amastercontrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>mastercontrols.com</t>
         </is>
       </c>
       <c r="B147">
@@ -11802,7 +11792,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amaxivolt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>maxivolt.com</t>
         </is>
       </c>
       <c r="B148">
@@ -11821,7 +11811,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amdfbus.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>mdfbus.com/</t>
         </is>
       </c>
       <c r="B149">
@@ -11840,7 +11830,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amedicalcommunications.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>medicalcommunications.com</t>
         </is>
       </c>
       <c r="B150">
@@ -11859,7 +11849,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amediso.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>mediso.com</t>
         </is>
       </c>
       <c r="B151">
@@ -11878,7 +11868,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amedtrace.dk%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>medtrace.dk/</t>
         </is>
       </c>
       <c r="B152">
@@ -11897,7 +11887,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amedtronic.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>medtronic.com/</t>
         </is>
       </c>
       <c r="B153">
@@ -11916,7 +11906,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ameidensha.com%2Fmas%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>meidensha.com/mas/</t>
         </is>
       </c>
       <c r="B154">
@@ -11935,7 +11925,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ameltric.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>meltric.com</t>
         </is>
       </c>
       <c r="B155">
@@ -11954,7 +11944,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aledvance.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ledvance.com</t>
         </is>
       </c>
       <c r="B156">
@@ -11973,7 +11963,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amgm-transformer.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>mgm-transformer.com</t>
         </is>
       </c>
       <c r="B157">
@@ -11992,7 +11982,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amilbankworks.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>milbankworks.com/</t>
         </is>
       </c>
       <c r="B158">
@@ -12011,7 +12001,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3AMillerWelds.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>MillerWelds.com</t>
         </is>
       </c>
       <c r="B159">
@@ -12030,7 +12020,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aus.mitsubishielectric.com%2Ffa%2Fen+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>us.mitsubishielectric.com/fa/en</t>
         </is>
       </c>
       <c r="B160">
@@ -12049,7 +12039,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ameppi.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>meppi.com</t>
         </is>
       </c>
       <c r="B161">
@@ -12068,7 +12058,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amphusky.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>mphusky.com</t>
         </is>
       </c>
       <c r="B162">
@@ -12087,7 +12077,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adenovadetect.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>denovadetect.com/</t>
         </is>
       </c>
       <c r="B163">
@@ -12106,7 +12096,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anewellporcelain.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>newellporcelain.com/</t>
         </is>
       </c>
       <c r="B164">
@@ -12125,7 +12115,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anew.abb.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>new.abb.com</t>
         </is>
       </c>
       <c r="B165">
@@ -12144,7 +12134,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Angk-polymer.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ngk-polymer.com</t>
         </is>
       </c>
       <c r="B166">
@@ -12163,7 +12153,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anidec-motor.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nidec-motor.com</t>
         </is>
       </c>
       <c r="B167">
@@ -12182,7 +12172,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anord.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nord.com</t>
         </is>
       </c>
       <c r="B168">
@@ -12201,7 +12191,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anorplex-micarta.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>norplex-micarta.com</t>
         </is>
       </c>
       <c r="B169">
@@ -12220,7 +12210,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anortherncables.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>northerncables.com/</t>
         </is>
       </c>
       <c r="B170">
@@ -12239,7 +12229,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anovartis.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>novartis.com/</t>
         </is>
       </c>
       <c r="B171">
@@ -12258,7 +12248,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ansiindustries.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nsiindustries.com/</t>
         </is>
       </c>
       <c r="B172">
@@ -12277,7 +12267,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anucortubular.com%2Fproduct%2Felectrical-conduit%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nucortubular.com/product/electrical-conduit/</t>
         </is>
       </c>
       <c r="B173">
@@ -12296,7 +12286,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aec2software.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ec2software.com</t>
         </is>
       </c>
       <c r="B174">
@@ -12315,7 +12305,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apanduit.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>panduit.com</t>
         </is>
       </c>
       <c r="B175">
@@ -12334,7 +12324,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aomnionpower.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>omnionpower.com/</t>
         </is>
       </c>
       <c r="B176">
@@ -12353,7 +12343,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apacshealth.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>pacshealth.com/</t>
         </is>
       </c>
       <c r="B177">
@@ -12372,7 +12362,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ana.panasonic.com%2Fus+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>na.panasonic.com/us</t>
         </is>
       </c>
       <c r="B178">
@@ -12391,7 +12381,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Alittelfuse.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>littelfuse.com</t>
         </is>
       </c>
       <c r="B179">
@@ -12410,7 +12400,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adelcantechnologies.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>delcantechnologies.com</t>
         </is>
       </c>
       <c r="B180">
@@ -12429,7 +12419,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apfisterer.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>pfisterer.com</t>
         </is>
       </c>
       <c r="B181">
@@ -12448,7 +12438,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aradiopharmacy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>radiopharmacy.com</t>
         </is>
       </c>
       <c r="B182">
@@ -12467,7 +12457,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ausa.philips.com%2Fhealthcare+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>usa.philips.com/healthcare</t>
         </is>
       </c>
       <c r="B183">
@@ -12486,7 +12476,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aencorewire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>encorewire.com</t>
         </is>
       </c>
       <c r="B184">
@@ -12505,7 +12495,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apostglover.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>postglover.com</t>
         </is>
       </c>
       <c r="B185">
@@ -12524,7 +12514,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apottersignal.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>pottersignal.com</t>
         </is>
       </c>
       <c r="B186">
@@ -12543,7 +12533,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apowergridcomponents.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>powergridcomponents.com/</t>
         </is>
       </c>
       <c r="B187">
@@ -12562,7 +12552,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Apreformed.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>preformed.com</t>
         </is>
       </c>
       <c r="B188">
@@ -12581,7 +12571,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aproaqct.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>proaqct.com</t>
         </is>
       </c>
       <c r="B189">
@@ -12600,7 +12590,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aprolec.energy%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>prolec.energy/</t>
         </is>
       </c>
       <c r="B190">
@@ -12619,7 +12609,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aprysmiangroup.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>prysmiangroup.com/</t>
         </is>
       </c>
       <c r="B191">
@@ -12638,7 +12628,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aquirkwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>quirkwire.com</t>
         </is>
       </c>
       <c r="B192">
@@ -12657,7 +12647,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arabweb.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>rabweb.com</t>
         </is>
       </c>
       <c r="B193">
@@ -12676,7 +12666,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aradiopharmtheranostics.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>radiopharmtheranostics.com/</t>
         </is>
       </c>
       <c r="B194">
@@ -12695,7 +12685,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aradix-wire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>radix-wire.com</t>
         </is>
       </c>
       <c r="B195">
@@ -12714,7 +12704,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arauland.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>rauland.com</t>
         </is>
       </c>
       <c r="B196">
@@ -12733,7 +12723,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Anvent.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>nvent.com</t>
         </is>
       </c>
       <c r="B197">
@@ -12752,7 +12742,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Areawire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>reawire.com</t>
         </is>
       </c>
       <c r="B198">
@@ -12771,7 +12761,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Areflexion.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>reflexion.com</t>
         </is>
       </c>
       <c r="B199">
@@ -12790,7 +12780,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aacuitybrands.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>acuitybrands.com</t>
         </is>
       </c>
       <c r="B200">
@@ -12809,7 +12799,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Areliancecontrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>reliancecontrols.com</t>
         </is>
       </c>
       <c r="B201">
@@ -12828,7 +12818,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arittal.us%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>rittal.us/</t>
         </is>
       </c>
       <c r="B202">
@@ -12847,7 +12837,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aritzusa.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ritzusa.com/</t>
         </is>
       </c>
       <c r="B203">
@@ -12866,7 +12856,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arobroy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>robroy.com</t>
         </is>
       </c>
       <c r="B204">
@@ -12885,7 +12875,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aroechling.com%2Fus%2Findustrial+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>roechling.com/us/industrial</t>
         </is>
       </c>
       <c r="B205">
@@ -12904,7 +12894,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Arockwellautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>rockwellautomation.com</t>
         </is>
       </c>
       <c r="B206">
@@ -12923,7 +12913,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ar-scc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>r-scc.com</t>
         </is>
       </c>
       <c r="B207">
@@ -12942,7 +12932,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asandc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sandc.com</t>
         </is>
       </c>
       <c r="B208">
@@ -12961,7 +12951,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aneurologica.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>neurologica.com</t>
         </is>
       </c>
       <c r="B209">
@@ -12980,7 +12970,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asatco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>satco.com</t>
         </is>
       </c>
       <c r="B210">
@@ -12999,7 +12989,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aphoenixcontact.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>phoenixcontact.com</t>
         </is>
       </c>
       <c r="B211">
@@ -13018,7 +13008,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asdifire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sdifire.com</t>
         </is>
       </c>
       <c r="B212">
@@ -13037,7 +13027,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asea-wire.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sea-wire.com/</t>
         </is>
       </c>
       <c r="B213">
@@ -13056,7 +13046,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asediver.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sediver.com/</t>
         </is>
       </c>
       <c r="B214">
@@ -13075,7 +13065,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asenomedical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>senomedical.com</t>
         </is>
       </c>
       <c r="B215">
@@ -13094,7 +13084,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asensus.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sensus.com</t>
         </is>
       </c>
       <c r="B216">
@@ -13113,7 +13103,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aregalrexnord.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>regalrexnord.com</t>
         </is>
       </c>
       <c r="B217">
@@ -13132,7 +13122,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aseweurodrive.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>seweurodrive.com</t>
         </is>
       </c>
       <c r="B218">
@@ -13151,7 +13141,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ashemartds.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>shemartds.com/</t>
         </is>
       </c>
       <c r="B219">
@@ -13170,7 +13160,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ashimadzu-usa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>shimadzu-usa.com</t>
         </is>
       </c>
       <c r="B220">
@@ -13189,7 +13179,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ausa.healthcare.siemens.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>usa.healthcare.siemens.com/</t>
         </is>
       </c>
       <c r="B221">
@@ -13208,7 +13198,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ausa.siemens.com%2FIndustry+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>usa.siemens.com/Industry</t>
         </is>
       </c>
       <c r="B222">
@@ -13227,7 +13217,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asigmaengineeredsolutions.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sigmaengineeredsolutions.com/</t>
         </is>
       </c>
       <c r="B223">
@@ -13246,7 +13236,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asignify.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>signify.com</t>
         </is>
       </c>
       <c r="B224">
@@ -13265,7 +13255,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Askyplug.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>skyplug.com</t>
         </is>
       </c>
       <c r="B225">
@@ -13284,7 +13274,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Askylineproducts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>skylineproducts.com</t>
         </is>
       </c>
       <c r="B226">
@@ -13303,7 +13293,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asnaketray.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>snaketray.com</t>
         </is>
       </c>
       <c r="B227">
@@ -13322,7 +13312,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asnappower.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>snappower.com/</t>
         </is>
       </c>
       <c r="B228">
@@ -13341,7 +13331,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asouthatlanticllc.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>southatlanticllc.com/</t>
         </is>
       </c>
       <c r="B229">
@@ -13360,7 +13350,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asouthern-pipe.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>southern-pipe.com</t>
         </is>
       </c>
       <c r="B230">
@@ -13379,7 +13369,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aweg.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>weg.net</t>
         </is>
       </c>
       <c r="B231">
@@ -13398,7 +13388,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3A1sae.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>1sae.com</t>
         </is>
       </c>
       <c r="B232">
@@ -13417,7 +13407,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asparkstone.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sparkstone.com/</t>
         </is>
       </c>
       <c r="B233">
@@ -13436,7 +13426,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aspecialtycable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>specialtycable.com</t>
         </is>
       </c>
       <c r="B234">
@@ -13455,7 +13445,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aspectrum-dynamics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>spectrum-dynamics.com</t>
         </is>
       </c>
       <c r="B235">
@@ -13474,7 +13464,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Astarlinepower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>starlinepower.com</t>
         </is>
       </c>
       <c r="B236">
@@ -13493,7 +13483,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asepco-usa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sepco-usa.com</t>
         </is>
       </c>
       <c r="B237">
@@ -13512,7 +13502,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asterlingelectric.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sterlingelectric.com</t>
         </is>
       </c>
       <c r="B238">
@@ -13531,7 +13521,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Astreetsmartrental.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>streetsmartrental.com/</t>
         </is>
       </c>
       <c r="B239">
@@ -13550,7 +13540,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Asesa.sunrisesesatech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>sesa.sunrisesesatech.com</t>
         </is>
       </c>
       <c r="B240">
@@ -13569,7 +13559,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3A800abcweld.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>800abcweld.com</t>
         </is>
       </c>
       <c r="B241">
@@ -13588,7 +13578,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atatungelectric.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>tatungelectric.com</t>
         </is>
       </c>
       <c r="B242">
@@ -13607,7 +13597,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atechlinemfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>techlinemfg.com</t>
         </is>
       </c>
       <c r="B243">
@@ -13626,7 +13616,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atechtopind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>techtopind.com</t>
         </is>
       </c>
       <c r="B244">
@@ -13645,7 +13635,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atecowestinghouse.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>tecowestinghouse.com</t>
         </is>
       </c>
       <c r="B245">
@@ -13664,7 +13654,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atektone.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>tektone.com</t>
         </is>
       </c>
       <c r="B246">
@@ -13683,7 +13673,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atelixpharma.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>telixpharma.com/</t>
         </is>
       </c>
       <c r="B247">
@@ -13702,7 +13692,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atemple-inc.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>temple-inc.com/</t>
         </is>
       </c>
       <c r="B248">
@@ -13721,7 +13711,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atescometering.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>tescometering.com</t>
         </is>
       </c>
       <c r="B249">
@@ -13740,7 +13730,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ateslamotors.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>teslamotors.com/</t>
         </is>
       </c>
       <c r="B250">
@@ -13759,7 +13749,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Adurhamusa.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>durhamusa.com/</t>
         </is>
       </c>
       <c r="B251">
@@ -13778,7 +13768,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Athegundcompany.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>thegundcompany.com/</t>
         </is>
       </c>
       <c r="B252">
@@ -13797,7 +13787,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Amonroecableusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>monroecableusa.com</t>
         </is>
       </c>
       <c r="B253">
@@ -13816,7 +13806,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3A786-920-3658+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>786-920-3658</t>
         </is>
       </c>
       <c r="B254">
@@ -13835,7 +13825,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atitan3.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>titan3.com/</t>
         </is>
       </c>
       <c r="B255">
@@ -13854,7 +13844,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atelemecaniquesensors.com%2Fus%2Fen+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>telemecaniquesensors.com/us/en</t>
         </is>
       </c>
       <c r="B256">
@@ -13873,7 +13863,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atornatech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>tornatech.com</t>
         </is>
       </c>
       <c r="B257">
@@ -13892,7 +13882,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atoshiba.com%2Ftic%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>toshiba.com/tic/</t>
         </is>
       </c>
       <c r="B258">
@@ -13911,7 +13901,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Atriacta.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>triacta.com</t>
         </is>
       </c>
       <c r="B259">
@@ -13930,7 +13920,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aubicquia.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ubicquia.com</t>
         </is>
       </c>
       <c r="B260">
@@ -13949,7 +13939,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Audevices.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>udevices.com</t>
         </is>
       </c>
       <c r="B261">
@@ -13968,7 +13958,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ausa.united-imaging.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>usa.united-imaging.com/</t>
         </is>
       </c>
       <c r="B262">
@@ -13987,7 +13977,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aunitray.ca%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>unitray.ca/</t>
         </is>
       </c>
       <c r="B263">
@@ -14006,7 +13996,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3AURL%3A+usaltg.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>URL: usaltg.com/</t>
         </is>
       </c>
       <c r="B264">
@@ -14025,7 +14015,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avantran.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>vantran.com</t>
         </is>
       </c>
       <c r="B265">
@@ -14044,7 +14034,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aver-mac.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>ver-mac.com</t>
         </is>
       </c>
       <c r="B266">
@@ -14063,7 +14053,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avertiv.com%2Fen-us%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>vertiv.com/en-us/</t>
         </is>
       </c>
       <c r="B267">
@@ -14082,7 +14072,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avictorinsulators.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>victorinsulators.com</t>
         </is>
       </c>
       <c r="B268">
@@ -14101,7 +14091,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avipwire.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>vipwire.com/</t>
         </is>
       </c>
       <c r="B269">
@@ -14120,7 +14110,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Avisus.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>visus.com</t>
         </is>
       </c>
       <c r="B270">
@@ -14139,7 +14129,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Agore.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>gore.com/</t>
         </is>
       </c>
       <c r="B271">
@@ -14158,7 +14148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awago.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>wago.com</t>
         </is>
       </c>
       <c r="B272">
@@ -14177,7 +14167,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aweidmuller.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>weidmuller.com</t>
         </is>
       </c>
       <c r="B273">
@@ -14196,7 +14186,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>https://www.se.com.sa/e-Bid/Home/ListOfMaterialGroups</t>
+          <t>se.com</t>
         </is>
       </c>
       <c r="B274">
@@ -14215,7 +14205,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awesterntube.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>westerntube.com</t>
         </is>
       </c>
       <c r="B275">
@@ -14234,7 +14224,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awestinghouselighting.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>westinghouselighting.com</t>
         </is>
       </c>
       <c r="B276">
@@ -14253,7 +14243,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awheatland.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>wheatland.com</t>
         </is>
       </c>
       <c r="B277">
@@ -14272,7 +14262,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Awiremasters.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>wiremasters.net</t>
         </is>
       </c>
       <c r="B278">
@@ -14291,7 +14281,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aworldwideelectric.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>worldwideelectric.net</t>
         </is>
       </c>
       <c r="B279">
@@ -14310,7 +14300,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Aworthingtonsteel.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>worthingtonsteel.com/</t>
         </is>
       </c>
       <c r="B280">
@@ -14329,7 +14319,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Axignux.com%2FSite%2FEN%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>xignux.com/Site/EN/</t>
         </is>
       </c>
       <c r="B281">
@@ -14348,7 +14338,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ayaskawa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>yaskawa.com</t>
         </is>
       </c>
       <c r="B282">
@@ -14367,7 +14357,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Ayunextraffic.com%2Fglobal%2Fen%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>yunextraffic.com/global/en/</t>
         </is>
       </c>
       <c r="B283">
@@ -14386,7 +14376,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?q=inurl%3Azpoweranddistribution.com%2F+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
+          <t>zpoweranddistribution.com/</t>
         </is>
       </c>
       <c r="B284">
@@ -14403,10 +14393,8 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?q=inurl%3Anan+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29</t>
-        </is>
+      <c r="A285" t="n">
+        <v/>
       </c>
       <c r="B285">
         <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anan+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>

--- a/output.xlsx
+++ b/output.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D37"/>
+  <dimension ref="A2:D531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,6 +1127,9392 @@
       </c>
       <c r="D37">
         <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aturtle.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>computrols.com</t>
+        </is>
+      </c>
+      <c r="B38">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acomputrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C38">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acomputrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D38">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acomputrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>memcon.eu</t>
+        </is>
+      </c>
+      <c r="B39">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amemcon.eu+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C39">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amemcon.eu+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D39">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amemcon.eu+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>oteco.com</t>
+        </is>
+      </c>
+      <c r="B40">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoteco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C40">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoteco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D40">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoteco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>teleflexarcatalog.com</t>
+        </is>
+      </c>
+      <c r="B41">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ateleflexarcatalog.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C41">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ateleflexarcatalog.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D41">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ateleflexarcatalog.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>estabrookcorp.com</t>
+        </is>
+      </c>
+      <c r="B42">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aestabrookcorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C42">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aestabrookcorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D42">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aestabrookcorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>nrtcautomation.com</t>
+        </is>
+      </c>
+      <c r="B43">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anrtcautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C43">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anrtcautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D43">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anrtcautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>undergroundtools.com</t>
+        </is>
+      </c>
+      <c r="B44">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aundergroundtools.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C44">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aundergroundtools.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D44">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aundergroundtools.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>amphenolmao.com</t>
+        </is>
+      </c>
+      <c r="B45">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolmao.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C45">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolmao.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D45">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolmao.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>apgsensors.com</t>
+        </is>
+      </c>
+      <c r="B46">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aapgsensors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C46">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aapgsensors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D46">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aapgsensors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>noliac.com</t>
+        </is>
+      </c>
+      <c r="B47">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anoliac.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C47">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anoliac.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D47">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anoliac.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>nextfirst.com</t>
+        </is>
+      </c>
+      <c r="B48">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anextfirst.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C48">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anextfirst.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D48">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anextfirst.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>raydiall.com</t>
+        </is>
+      </c>
+      <c r="B49">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Araydiall.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C49">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Araydiall.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D49">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Araydiall.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>tasind.com</t>
+        </is>
+      </c>
+      <c r="B50">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atasind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C50">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atasind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D50">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atasind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>psicontrolsolutions.com</t>
+        </is>
+      </c>
+      <c r="B51">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apsicontrolsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C51">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apsicontrolsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D51">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apsicontrolsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>rowleyspring.com</t>
+        </is>
+      </c>
+      <c r="B52">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arowleyspring.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C52">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arowleyspring.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D52">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arowleyspring.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>prestolitepower.com</t>
+        </is>
+      </c>
+      <c r="B53">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprestolitepower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C53">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprestolitepower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D53">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprestolitepower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>interstatewire.com</t>
+        </is>
+      </c>
+      <c r="B54">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainterstatewire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C54">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainterstatewire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D54">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainterstatewire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>nexusmedical.com</t>
+        </is>
+      </c>
+      <c r="B55">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anexusmedical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C55">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anexusmedical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D55">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anexusmedical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>b3cg.com</t>
+        </is>
+      </c>
+      <c r="B56">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ab3cg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C56">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ab3cg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D56">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ab3cg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>sdindt.com</t>
+        </is>
+      </c>
+      <c r="B57">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asdindt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C57">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asdindt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D57">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asdindt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>astrocom-electronics.com</t>
+        </is>
+      </c>
+      <c r="B58">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aastrocom-electronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C58">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aastrocom-electronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D58">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aastrocom-electronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ecsconn.com</t>
+        </is>
+      </c>
+      <c r="B59">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aecsconn.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C59">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aecsconn.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D59">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aecsconn.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>autoquip.com</t>
+        </is>
+      </c>
+      <c r="B60">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aautoquip.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C60">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aautoquip.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D60">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aautoquip.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>cirris.com</t>
+        </is>
+      </c>
+      <c r="B61">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acirris.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C61">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acirris.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D61">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acirris.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>furutech.com</t>
+        </is>
+      </c>
+      <c r="B62">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afurutech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C62">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afurutech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D62">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afurutech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>mjmindustries.com</t>
+        </is>
+      </c>
+      <c r="B63">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amjmindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C63">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amjmindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D63">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amjmindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>phoenixofchicago.com</t>
+        </is>
+      </c>
+      <c r="B64">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aphoenixofchicago.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C64">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aphoenixofchicago.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D64">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aphoenixofchicago.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>utitec.com</t>
+        </is>
+      </c>
+      <c r="B65">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Autitec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C65">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Autitec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D65">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Autitec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>wes-tech.com</t>
+        </is>
+      </c>
+      <c r="B66">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awes-tech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C66">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awes-tech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D66">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awes-tech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>yokowoconnector.com</t>
+        </is>
+      </c>
+      <c r="B67">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ayokowoconnector.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C67">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ayokowoconnector.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D67">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ayokowoconnector.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>alignproductionsystems.com</t>
+        </is>
+      </c>
+      <c r="B68">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aalignproductionsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C68">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aalignproductionsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D68">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aalignproductionsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>kinginnovation.com</t>
+        </is>
+      </c>
+      <c r="B69">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akinginnovation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C69">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akinginnovation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D69">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akinginnovation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>pcs-energy.com</t>
+        </is>
+      </c>
+      <c r="B70">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apcs-energy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C70">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apcs-energy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D70">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apcs-energy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>humatics.com</t>
+        </is>
+      </c>
+      <c r="B71">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahumatics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C71">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahumatics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D71">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahumatics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>southernfabricationworks.com</t>
+        </is>
+      </c>
+      <c r="B72">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asouthernfabricationworks.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C72">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asouthernfabricationworks.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D72">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asouthernfabricationworks.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>technico.com</t>
+        </is>
+      </c>
+      <c r="B73">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atechnico.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C73">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atechnico.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D73">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atechnico.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>cablesys.com</t>
+        </is>
+      </c>
+      <c r="B74">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acablesys.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C74">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acablesys.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D74">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acablesys.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>dynawave.com</t>
+        </is>
+      </c>
+      <c r="B75">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adynawave.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C75">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adynawave.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D75">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adynawave.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ipegstl.com</t>
+        </is>
+      </c>
+      <c r="B76">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aipegstl.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C76">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aipegstl.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D76">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aipegstl.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>flowrox.com</t>
+        </is>
+      </c>
+      <c r="B77">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aflowrox.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C77">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aflowrox.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D77">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aflowrox.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>vte-europe.com</t>
+        </is>
+      </c>
+      <c r="B78">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avte-europe.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C78">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avte-europe.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D78">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avte-europe.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>icmedical.com</t>
+        </is>
+      </c>
+      <c r="B79">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aicmedical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C79">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aicmedical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D79">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aicmedical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>magswitch.com</t>
+        </is>
+      </c>
+      <c r="B80">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amagswitch.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C80">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amagswitch.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D80">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amagswitch.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>scottindustrialsystems.com</t>
+        </is>
+      </c>
+      <c r="B81">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ascottindustrialsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C81">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ascottindustrialsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D81">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ascottindustrialsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>eslpwr.com</t>
+        </is>
+      </c>
+      <c r="B82">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeslpwr.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C82">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeslpwr.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D82">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeslpwr.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>pennair.com</t>
+        </is>
+      </c>
+      <c r="B83">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apennair.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C83">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apennair.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D83">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apennair.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>universalwellhead.com</t>
+        </is>
+      </c>
+      <c r="B84">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Auniversalwellhead.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C84">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Auniversalwellhead.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D84">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Auniversalwellhead.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>allsystemsbroadband.com</t>
+        </is>
+      </c>
+      <c r="B85">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aallsystemsbroadband.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C85">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aallsystemsbroadband.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D85">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aallsystemsbroadband.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>festo-didactic.com</t>
+        </is>
+      </c>
+      <c r="B86">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afesto-didactic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C86">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afesto-didactic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D86">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afesto-didactic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>knex.com</t>
+        </is>
+      </c>
+      <c r="B87">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aknex.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C87">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aknex.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D87">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aknex.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>microfinishgroup.com</t>
+        </is>
+      </c>
+      <c r="B88">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicrofinishgroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C88">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicrofinishgroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D88">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicrofinishgroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>peerlesselectronics.com</t>
+        </is>
+      </c>
+      <c r="B89">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apeerlesselectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C89">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apeerlesselectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D89">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apeerlesselectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>walcokip.com</t>
+        </is>
+      </c>
+      <c r="B90">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awalcokip.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C90">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awalcokip.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D90">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awalcokip.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>tksindustrial.com</t>
+        </is>
+      </c>
+      <c r="B91">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atksindustrial.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C91">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atksindustrial.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D91">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atksindustrial.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ctconline.com</t>
+        </is>
+      </c>
+      <c r="B92">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Actconline.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C92">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Actconline.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D92">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Actconline.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>machitech.com</t>
+        </is>
+      </c>
+      <c r="B93">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amachitech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C93">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amachitech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D93">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amachitech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>systelusa.com</t>
+        </is>
+      </c>
+      <c r="B94">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asystelusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C94">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asystelusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D94">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asystelusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>buffoli.com</t>
+        </is>
+      </c>
+      <c r="B95">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abuffoli.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C95">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abuffoli.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D95">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abuffoli.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>fastechgroup.com</t>
+        </is>
+      </c>
+      <c r="B96">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afastechgroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C96">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afastechgroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D96">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afastechgroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>hinds-bock.com</t>
+        </is>
+      </c>
+      <c r="B97">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahinds-bock.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C97">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahinds-bock.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D97">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahinds-bock.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>onanon.com</t>
+        </is>
+      </c>
+      <c r="B98">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aonanon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C98">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aonanon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D98">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aonanon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>prpsystems.net</t>
+        </is>
+      </c>
+      <c r="B99">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprpsystems.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C99">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprpsystems.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D99">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprpsystems.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>smcduct.com</t>
+        </is>
+      </c>
+      <c r="B100">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asmcduct.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C100">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asmcduct.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D100">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asmcduct.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>airelectro.com</t>
+        </is>
+      </c>
+      <c r="B101">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aairelectro.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C101">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aairelectro.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D101">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aairelectro.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>vibratory-bowl-feeders.com</t>
+        </is>
+      </c>
+      <c r="B102">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avibratory-bowl-feeders.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C102">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avibratory-bowl-feeders.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D102">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avibratory-bowl-feeders.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>thehopegroup.com</t>
+        </is>
+      </c>
+      <c r="B103">
+        <f>HYPERLINK("https://www.thehopegroup.com/wp-content/uploads/2022/09/Cat_MSG14-3200_Slip-In_Cartridge_Valves.pdf", "YES")</f>
+        <v/>
+      </c>
+      <c r="C103">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athehopegroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D103">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athehopegroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>hermeses.com</t>
+        </is>
+      </c>
+      <c r="B104">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahermeses.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C104">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahermeses.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D104">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahermeses.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>legacytechnologies.com</t>
+        </is>
+      </c>
+      <c r="B105">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alegacytechnologies.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C105">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alegacytechnologies.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D105">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alegacytechnologies.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>polarisconnectors.com</t>
+        </is>
+      </c>
+      <c r="B106">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apolarisconnectors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C106">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apolarisconnectors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D106">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apolarisconnectors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>anchorfluidpower.com</t>
+        </is>
+      </c>
+      <c r="B107">
+        <f>HYPERLINK("https://www.anchorfluidpower.com/latest-news/", "YES")</f>
+        <v/>
+      </c>
+      <c r="C107">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aanchorfluidpower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D107">
+        <f>HYPERLINK("https://www.anchorfluidpower.com/latest-news/", "YES")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>cmtnc.com</t>
+        </is>
+      </c>
+      <c r="B108">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acmtnc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C108">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acmtnc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D108">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acmtnc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>majorcustomcable.com</t>
+        </is>
+      </c>
+      <c r="B109">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amajorcustomcable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C109">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amajorcustomcable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D109">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amajorcustomcable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>cables-unlimited.com</t>
+        </is>
+      </c>
+      <c r="B110">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acables-unlimited.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C110">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acables-unlimited.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D110">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acables-unlimited.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>domailleengineering.com</t>
+        </is>
+      </c>
+      <c r="B111">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adomailleengineering.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C111">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adomailleengineering.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D111">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adomailleengineering.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>amcautomation.com</t>
+        </is>
+      </c>
+      <c r="B112">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamcautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C112">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamcautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D112">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamcautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>finecables.com</t>
+        </is>
+      </c>
+      <c r="B113">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afinecables.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C113">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afinecables.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D113">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afinecables.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>thomasengineering.com</t>
+        </is>
+      </c>
+      <c r="B114">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athomasengineering.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C114">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athomasengineering.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D114">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athomasengineering.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>vac-u-max.com</t>
+        </is>
+      </c>
+      <c r="B115">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avac-u-max.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C115">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avac-u-max.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D115">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avac-u-max.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>bwc.com</t>
+        </is>
+      </c>
+      <c r="B116">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abwc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C116">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abwc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D116">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abwc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>dmsimfg.com</t>
+        </is>
+      </c>
+      <c r="B117">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Admsimfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C117">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Admsimfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D117">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Admsimfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>quickconnectors.com</t>
+        </is>
+      </c>
+      <c r="B118">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aquickconnectors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C118">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aquickconnectors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D118">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aquickconnectors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>superbindustries.com</t>
+        </is>
+      </c>
+      <c r="B119">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asuperbindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C119">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asuperbindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D119">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asuperbindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>meritech.com</t>
+        </is>
+      </c>
+      <c r="B120">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ameritech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C120">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ameritech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D120">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ameritech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>nhsignal.com</t>
+        </is>
+      </c>
+      <c r="B121">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anhsignal.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C121">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anhsignal.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D121">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anhsignal.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>teesing.com</t>
+        </is>
+      </c>
+      <c r="B122">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ateesing.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C122">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ateesing.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D122">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ateesing.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>arcspecialties.com</t>
+        </is>
+      </c>
+      <c r="B123">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aarcspecialties.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C123">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aarcspecialties.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D123">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aarcspecialties.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>zygo.com</t>
+        </is>
+      </c>
+      <c r="B124">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Azygo.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C124">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Azygo.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D124">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Azygo.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>terminalandrae.com</t>
+        </is>
+      </c>
+      <c r="B125">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aterminalandrae.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C125">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aterminalandrae.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D125">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aterminalandrae.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>abracon.com</t>
+        </is>
+      </c>
+      <c r="B126">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aabracon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C126">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aabracon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D126">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aabracon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>aerospacecontacts.com</t>
+        </is>
+      </c>
+      <c r="B127">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaerospacecontacts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C127">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaerospacecontacts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D127">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaerospacecontacts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>aquorwatersystems.com</t>
+        </is>
+      </c>
+      <c r="B128">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaquorwatersystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C128">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaquorwatersystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D128">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaquorwatersystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>btcelectronics.com</t>
+        </is>
+      </c>
+      <c r="B129">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abtcelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C129">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abtcelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D129">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abtcelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>coastipc.com</t>
+        </is>
+      </c>
+      <c r="B130">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acoastipc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C130">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acoastipc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D130">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acoastipc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>fujipoly.com</t>
+        </is>
+      </c>
+      <c r="B131">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afujipoly.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C131">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afujipoly.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D131">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afujipoly.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>spiroflow.com</t>
+        </is>
+      </c>
+      <c r="B132">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspiroflow.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C132">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspiroflow.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D132">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspiroflow.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>enocean.com</t>
+        </is>
+      </c>
+      <c r="B133">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aenocean.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C133">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aenocean.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D133">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aenocean.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>navitar.com</t>
+        </is>
+      </c>
+      <c r="B134">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anavitar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C134">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anavitar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D134">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anavitar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>vanguardnetworks.com</t>
+        </is>
+      </c>
+      <c r="B135">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avanguardnetworks.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C135">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avanguardnetworks.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D135">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avanguardnetworks.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>kebamerica.com</t>
+        </is>
+      </c>
+      <c r="B136">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akebamerica.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C136">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akebamerica.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D136">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akebamerica.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>mifp.com</t>
+        </is>
+      </c>
+      <c r="B137">
+        <f>HYPERLINK("https://www.mifp.com/wp-content/uploads/2020/10/Hydraulic_Electrohydraulic_Actuators.pdf", "YES")</f>
+        <v/>
+      </c>
+      <c r="C137">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amifp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D137">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amifp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>sumix.com</t>
+        </is>
+      </c>
+      <c r="B138">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asumix.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C138">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asumix.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D138">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asumix.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>htetechnologies.com</t>
+        </is>
+      </c>
+      <c r="B139">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahtetechnologies.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C139">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahtetechnologies.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D139">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahtetechnologies.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>optospan.com</t>
+        </is>
+      </c>
+      <c r="B140">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoptospan.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C140">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoptospan.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D140">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoptospan.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>delta-americas.com</t>
+        </is>
+      </c>
+      <c r="B141">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adelta-americas.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C141">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adelta-americas.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D141">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adelta-americas.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>micromode.com</t>
+        </is>
+      </c>
+      <c r="B142">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicromode.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C142">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicromode.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D142">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicromode.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>spartanics.com</t>
+        </is>
+      </c>
+      <c r="B143">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspartanics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C143">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspartanics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D143">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspartanics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>spillmanform.com</t>
+        </is>
+      </c>
+      <c r="B144">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspillmanform.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C144">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspillmanform.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D144">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspillmanform.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>elcomplus.com</t>
+        </is>
+      </c>
+      <c r="B145">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aelcomplus.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C145">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aelcomplus.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D145">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aelcomplus.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>iehcorp.com</t>
+        </is>
+      </c>
+      <c r="B146">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aiehcorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C146">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aiehcorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D146">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aiehcorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>jameco.com</t>
+        </is>
+      </c>
+      <c r="B147">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajameco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C147">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajameco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D147">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajameco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>rubvalves.com</t>
+        </is>
+      </c>
+      <c r="B148">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arubvalves.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C148">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arubvalves.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D148">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arubvalves.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>cortlandcompany.com</t>
+        </is>
+      </c>
+      <c r="B149">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acortlandcompany.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C149">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acortlandcompany.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D149">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acortlandcompany.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>flexibleassembly.com</t>
+        </is>
+      </c>
+      <c r="B150">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aflexibleassembly.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C150">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aflexibleassembly.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D150">
+        <f>HYPERLINK("https://www.flexibleassembly.com/tech-documents/Nitto-Kohki/Nitto%20Kohki%20Delvo%20General%20Catalog.pdf", "YES")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>interconnectsolutions.com</t>
+        </is>
+      </c>
+      <c r="B151">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainterconnectsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C151">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainterconnectsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D151">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainterconnectsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ohlheiser.com</t>
+        </is>
+      </c>
+      <c r="B152">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aohlheiser.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C152">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aohlheiser.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D152">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aohlheiser.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>seniorflexonics.com</t>
+        </is>
+      </c>
+      <c r="B153">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aseniorflexonics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C153">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aseniorflexonics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D153">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aseniorflexonics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>standardcontrols.com</t>
+        </is>
+      </c>
+      <c r="B154">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astandardcontrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C154">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astandardcontrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D154">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astandardcontrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ask-power.com</t>
+        </is>
+      </c>
+      <c r="B155">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aask-power.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C155">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aask-power.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D155">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aask-power.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>andersonpower.com</t>
+        </is>
+      </c>
+      <c r="B156">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aandersonpower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C156">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aandersonpower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D156">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aandersonpower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>asg-jergens.com</t>
+        </is>
+      </c>
+      <c r="B157">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aasg-jergens.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C157">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aasg-jergens.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D157">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aasg-jergens.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>cablestogo.com</t>
+        </is>
+      </c>
+      <c r="B158">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acablestogo.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C158">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acablestogo.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D158">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acablestogo.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>cckautomations.com</t>
+        </is>
+      </c>
+      <c r="B159">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acckautomations.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C159">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acckautomations.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D159">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acckautomations.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>controlair.com</t>
+        </is>
+      </c>
+      <c r="B160">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acontrolair.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C160">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acontrolair.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D160">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acontrolair.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>epsvt.com</t>
+        </is>
+      </c>
+      <c r="B161">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aepsvt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C161">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aepsvt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D161">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aepsvt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>shopcatheters.com</t>
+        </is>
+      </c>
+      <c r="B162">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ashopcatheters.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C162">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ashopcatheters.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D162">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ashopcatheters.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>guyson.com</t>
+        </is>
+      </c>
+      <c r="B163">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aguyson.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C163">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aguyson.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D163">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aguyson.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>quakeglobal.com</t>
+        </is>
+      </c>
+      <c r="B164">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aquakeglobal.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C164">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aquakeglobal.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D164">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aquakeglobal.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>micromax.com</t>
+        </is>
+      </c>
+      <c r="B165">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicromax.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C165">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicromax.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D165">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicromax.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>qcconveyors.com</t>
+        </is>
+      </c>
+      <c r="B166">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aqcconveyors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C166">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aqcconveyors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D166">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aqcconveyors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>procircuitinc.com</t>
+        </is>
+      </c>
+      <c r="B167">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprocircuitinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C167">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprocircuitinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D167">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprocircuitinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>thermomass.com</t>
+        </is>
+      </c>
+      <c r="B168">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athermomass.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C168">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athermomass.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D168">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athermomass.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>kemalmfg.com</t>
+        </is>
+      </c>
+      <c r="B169">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akemalmfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C169">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akemalmfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D169">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akemalmfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>localautomation.com</t>
+        </is>
+      </c>
+      <c r="B170">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alocalautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C170">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alocalautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D170">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alocalautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>oleumtech.com</t>
+        </is>
+      </c>
+      <c r="B171">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoleumtech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C171">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoleumtech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D171">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoleumtech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>connectorspecialists.com</t>
+        </is>
+      </c>
+      <c r="B172">
+        <f>HYPERLINK("https://www.connectorspecialists.com/departments?Filter=department.hose-fittings/product-type.quick-disconnect-couplings/", "YES")</f>
+        <v/>
+      </c>
+      <c r="C172">
+        <f>HYPERLINK("https://www.connectorspecialists.com/products?Filter=2637.8200-series-coupler-female-sae/department.hose-fittings/product-type.quick-disconnect-couplings/parker-group.fluid-connector/", "YES")</f>
+        <v/>
+      </c>
+      <c r="D172">
+        <f>HYPERLINK("https://www.connectorspecialists.com/departments?Filter=department.hose-fittings/product-type.quick-disconnect-couplings/", "YES")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>jabosupply.com</t>
+        </is>
+      </c>
+      <c r="B173">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajabosupply.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C173">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajabosupply.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D173">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajabosupply.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>sandersonmacleod.com</t>
+        </is>
+      </c>
+      <c r="B174">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asandersonmacleod.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C174">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asandersonmacleod.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D174">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asandersonmacleod.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>fisblue.com</t>
+        </is>
+      </c>
+      <c r="B175">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afisblue.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C175">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afisblue.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D175">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afisblue.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>wems.com</t>
+        </is>
+      </c>
+      <c r="B176">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C176">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D176">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>amphenol-sine.com</t>
+        </is>
+      </c>
+      <c r="B177">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-sine.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C177">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-sine.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D177">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-sine.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>eldonjames.com</t>
+        </is>
+      </c>
+      <c r="B178">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeldonjames.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C178">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeldonjames.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D178">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeldonjames.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>etco.com</t>
+        </is>
+      </c>
+      <c r="B179">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aetco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C179">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aetco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D179">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aetco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>gmigroup.com</t>
+        </is>
+      </c>
+      <c r="B180">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agmigroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C180">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agmigroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D180">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agmigroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>sealconusa.com</t>
+        </is>
+      </c>
+      <c r="B181">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asealconusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C181">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asealconusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D181">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asealconusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>cablexpress.com</t>
+        </is>
+      </c>
+      <c r="B182">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acablexpress.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C182">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acablexpress.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D182">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acablexpress.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>iac-intl.com</t>
+        </is>
+      </c>
+      <c r="B183">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aiac-intl.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C183">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aiac-intl.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D183">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aiac-intl.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>spacecraft.com</t>
+        </is>
+      </c>
+      <c r="B184">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspacecraft.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C184">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspacecraft.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D184">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspacecraft.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>apinanotronics.com</t>
+        </is>
+      </c>
+      <c r="B185">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aapinanotronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C185">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aapinanotronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D185">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aapinanotronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>hellermanntyton.us</t>
+        </is>
+      </c>
+      <c r="B186">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahellermanntyton.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C186">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahellermanntyton.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D186">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahellermanntyton.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>lightel.com</t>
+        </is>
+      </c>
+      <c r="B187">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alightel.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C187">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alightel.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D187">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alightel.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>hamiltonkent.com</t>
+        </is>
+      </c>
+      <c r="B188">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahamiltonkent.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C188">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahamiltonkent.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D188">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahamiltonkent.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>stockwell.com</t>
+        </is>
+      </c>
+      <c r="B189">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astockwell.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C189">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astockwell.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D189">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astockwell.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>penflex.com</t>
+        </is>
+      </c>
+      <c r="B190">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apenflex.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C190">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apenflex.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D190">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apenflex.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ritus.com</t>
+        </is>
+      </c>
+      <c r="B191">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aritus.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C191">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aritus.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D191">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aritus.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>amphenol-industrial.de</t>
+        </is>
+      </c>
+      <c r="B192">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-industrial.de+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C192">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-industrial.de+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D192">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-industrial.de+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>kyanaind.com</t>
+        </is>
+      </c>
+      <c r="B193">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akyanaind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C193">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akyanaind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D193">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akyanaind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>mfchose.com</t>
+        </is>
+      </c>
+      <c r="B194">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amfchose.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C194">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amfchose.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D194">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amfchose.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>premierautomation.com</t>
+        </is>
+      </c>
+      <c r="B195">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apremierautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C195">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apremierautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D195">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apremierautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>megaelectronics.com</t>
+        </is>
+      </c>
+      <c r="B196">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amegaelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C196">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amegaelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D196">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amegaelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>thermosystems.com</t>
+        </is>
+      </c>
+      <c r="B197">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athermosystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C197">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athermosystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D197">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athermosystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>thevmcgroup.com</t>
+        </is>
+      </c>
+      <c r="B198">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athevmcgroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C198">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athevmcgroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D198">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athevmcgroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>tieindustrial.com</t>
+        </is>
+      </c>
+      <c r="B199">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atieindustrial.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C199">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atieindustrial.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D199">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atieindustrial.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ctrends.com</t>
+        </is>
+      </c>
+      <c r="B200">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Actrends.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C200">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Actrends.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D200">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Actrends.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>slkcorp.com</t>
+        </is>
+      </c>
+      <c r="B201">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aslkcorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C201">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aslkcorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D201">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aslkcorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>wiegeltoolworks.com</t>
+        </is>
+      </c>
+      <c r="B202">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awiegeltoolworks.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C202">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awiegeltoolworks.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D202">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awiegeltoolworks.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>actforklift.com</t>
+        </is>
+      </c>
+      <c r="B203">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aactforklift.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C203">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aactforklift.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D203">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aactforklift.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>picwire.com</t>
+        </is>
+      </c>
+      <c r="B204">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apicwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C204">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apicwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D204">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apicwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>zierick.com</t>
+        </is>
+      </c>
+      <c r="B205">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Azierick.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C205">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Azierick.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D205">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Azierick.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>all-plastics.com</t>
+        </is>
+      </c>
+      <c r="B206">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aall-plastics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C206">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aall-plastics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D206">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aall-plastics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>pacergroup.net</t>
+        </is>
+      </c>
+      <c r="B207">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apacergroup.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C207">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apacergroup.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D207">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apacergroup.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>gtschmidt.com</t>
+        </is>
+      </c>
+      <c r="B208">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agtschmidt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C208">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agtschmidt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D208">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agtschmidt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>superiorcontrols.com</t>
+        </is>
+      </c>
+      <c r="B209">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asuperiorcontrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C209">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asuperiorcontrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D209">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asuperiorcontrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>pccfasteners.com</t>
+        </is>
+      </c>
+      <c r="B210">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apccfasteners.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C210">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apccfasteners.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D210">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apccfasteners.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>miinet.com</t>
+        </is>
+      </c>
+      <c r="B211">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amiinet.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C211">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amiinet.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D211">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amiinet.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>versae.com</t>
+        </is>
+      </c>
+      <c r="B212">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aversae.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C212">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aversae.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D212">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aversae.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>vecnarobotics.com</t>
+        </is>
+      </c>
+      <c r="B213">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avecnarobotics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C213">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avecnarobotics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D213">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avecnarobotics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ibase-usa.com</t>
+        </is>
+      </c>
+      <c r="B214">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aibase-usa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C214">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aibase-usa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D214">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aibase-usa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>innerspec.com</t>
+        </is>
+      </c>
+      <c r="B215">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainnerspec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C215">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainnerspec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D215">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainnerspec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>kemlon.com</t>
+        </is>
+      </c>
+      <c r="B216">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akemlon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C216">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akemlon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D216">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akemlon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>valleyfastener.com</t>
+        </is>
+      </c>
+      <c r="B217">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avalleyfastener.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C217">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avalleyfastener.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D217">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avalleyfastener.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>acpi-systems.com</t>
+        </is>
+      </c>
+      <c r="B218">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aacpi-systems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C218">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aacpi-systems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D218">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aacpi-systems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>stalcop.com</t>
+        </is>
+      </c>
+      <c r="B219">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astalcop.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C219">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astalcop.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D219">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astalcop.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>industrialautomationllc.com</t>
+        </is>
+      </c>
+      <c r="B220">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aindustrialautomationllc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C220">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aindustrialautomationllc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D220">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aindustrialautomationllc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>automatech.com</t>
+        </is>
+      </c>
+      <c r="B221">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aautomatech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C221">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aautomatech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D221">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aautomatech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ctreat.com</t>
+        </is>
+      </c>
+      <c r="B222">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Actreat.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C222">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Actreat.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D222">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Actreat.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>hydrotech.com</t>
+        </is>
+      </c>
+      <c r="B223">
+        <f>HYPERLINK("https://www.hydrotech.com/shop/product/694895-syhdfee-1x-355r-ppb25k99-0576-aoboc", "YES")</f>
+        <v/>
+      </c>
+      <c r="C223">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahydrotech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D223">
+        <f>HYPERLINK("https://www.hydrotech.com/shop/product/694895-syhdfee-1x-355r-ppb25k99-0576-aoboc", "YES")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>vadatech.com</t>
+        </is>
+      </c>
+      <c r="B224">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avadatech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C224">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avadatech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D224">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avadatech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>gilautomation.com</t>
+        </is>
+      </c>
+      <c r="B225">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agilautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C225">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agilautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D225">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agilautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>milspecind.com</t>
+        </is>
+      </c>
+      <c r="B226">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amilspecind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C226">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amilspecind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D226">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amilspecind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>sgmorris.com</t>
+        </is>
+      </c>
+      <c r="B227">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asgmorris.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C227">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asgmorris.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D227">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asgmorris.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>korpack.com</t>
+        </is>
+      </c>
+      <c r="B228">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akorpack.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C228">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akorpack.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D228">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akorpack.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>adamconn.com</t>
+        </is>
+      </c>
+      <c r="B229">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aadamconn.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C229">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aadamconn.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D229">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aadamconn.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>canfieldconnector.com</t>
+        </is>
+      </c>
+      <c r="B230">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acanfieldconnector.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C230">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acanfieldconnector.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D230">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acanfieldconnector.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>datasci.com</t>
+        </is>
+      </c>
+      <c r="B231">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adatasci.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C231">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adatasci.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D231">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adatasci.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>litemax.com</t>
+        </is>
+      </c>
+      <c r="B232">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alitemax.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C232">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alitemax.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D232">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alitemax.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>neutrik.com</t>
+        </is>
+      </c>
+      <c r="B233">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aneutrik.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C233">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aneutrik.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D233">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aneutrik.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>relevantsolutions.com</t>
+        </is>
+      </c>
+      <c r="B234">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arelevantsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C234">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arelevantsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D234">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arelevantsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>keyelco.com</t>
+        </is>
+      </c>
+      <c r="B235">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akeyelco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C235">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akeyelco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D235">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akeyelco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>pasternack.com</t>
+        </is>
+      </c>
+      <c r="B236">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apasternack.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C236">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apasternack.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D236">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apasternack.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>kimastle.com</t>
+        </is>
+      </c>
+      <c r="B237">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akimastle.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C237">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akimastle.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D237">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akimastle.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>curtisind.com</t>
+        </is>
+      </c>
+      <c r="B238">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acurtisind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C238">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acurtisind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D238">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acurtisind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>dsmt.com</t>
+        </is>
+      </c>
+      <c r="B239">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adsmt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C239">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adsmt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D239">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adsmt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>quickcable.com</t>
+        </is>
+      </c>
+      <c r="B240">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aquickcable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C240">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aquickcable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D240">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aquickcable.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>controlsystemsusa.com</t>
+        </is>
+      </c>
+      <c r="B241">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acontrolsystemsusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C241">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acontrolsystemsusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D241">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acontrolsystemsusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>watteredge.com</t>
+        </is>
+      </c>
+      <c r="B242">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awatteredge.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C242">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awatteredge.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D242">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awatteredge.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>foxguardsolutions.com</t>
+        </is>
+      </c>
+      <c r="B243">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afoxguardsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C243">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afoxguardsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D243">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afoxguardsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>confluids.com</t>
+        </is>
+      </c>
+      <c r="B244">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aconfluids.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C244">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aconfluids.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D244">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aconfluids.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>huimfg.com</t>
+        </is>
+      </c>
+      <c r="B245">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahuimfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C245">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahuimfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D245">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahuimfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>wauseonmachine.com</t>
+        </is>
+      </c>
+      <c r="B246">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awauseonmachine.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C246">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awauseonmachine.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D246">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awauseonmachine.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>oxygenservicecompany.com</t>
+        </is>
+      </c>
+      <c r="B247">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoxygenservicecompany.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C247">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoxygenservicecompany.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D247">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoxygenservicecompany.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>sysargus.com</t>
+        </is>
+      </c>
+      <c r="B248">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asysargus.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C248">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asysargus.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D248">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asysargus.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>lomar.com</t>
+        </is>
+      </c>
+      <c r="B249">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alomar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C249">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alomar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D249">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alomar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>vpc.com</t>
+        </is>
+      </c>
+      <c r="B250">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avpc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C250">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avpc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D250">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avpc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>amphenolalden.com</t>
+        </is>
+      </c>
+      <c r="B251">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolalden.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C251">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolalden.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D251">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolalden.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>phyco.com</t>
+        </is>
+      </c>
+      <c r="B252">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aphyco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C252">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aphyco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D252">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aphyco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>sfpex.com</t>
+        </is>
+      </c>
+      <c r="B253">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asfpex.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C253">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asfpex.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D253">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asfpex.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>panekprecision.com</t>
+        </is>
+      </c>
+      <c r="B254">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apanekprecision.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C254">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apanekprecision.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D254">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apanekprecision.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>sefcor.com</t>
+        </is>
+      </c>
+      <c r="B255">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asefcor.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C255">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asefcor.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D255">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asefcor.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>hysecurity.com</t>
+        </is>
+      </c>
+      <c r="B256">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahysecurity.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C256">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahysecurity.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D256">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahysecurity.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>rsaeng.com</t>
+        </is>
+      </c>
+      <c r="B257">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arsaeng.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C257">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arsaeng.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D257">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arsaeng.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>unisource-mfg.com</t>
+        </is>
+      </c>
+      <c r="B258">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aunisource-mfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C258">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aunisource-mfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D258">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aunisource-mfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>mencom.com</t>
+        </is>
+      </c>
+      <c r="B259">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amencom.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C259">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amencom.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D259">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amencom.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>mpfpi.com</t>
+        </is>
+      </c>
+      <c r="B260">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ampfpi.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C260">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ampfpi.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D260">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ampfpi.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>microscan.com</t>
+        </is>
+      </c>
+      <c r="B261">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicroscan.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C261">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicroscan.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D261">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicroscan.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>waferspace.com</t>
+        </is>
+      </c>
+      <c r="B262">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awaferspace.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C262">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awaferspace.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D262">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awaferspace.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>gil-mar.com</t>
+        </is>
+      </c>
+      <c r="B263">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agil-mar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C263">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agil-mar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D263">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agil-mar.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>riekesequipment.com</t>
+        </is>
+      </c>
+      <c r="B264">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ariekesequipment.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C264">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ariekesequipment.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D264">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ariekesequipment.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>svmicro.com</t>
+        </is>
+      </c>
+      <c r="B265">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asvmicro.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C265">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asvmicro.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D265">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asvmicro.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ericson.com</t>
+        </is>
+      </c>
+      <c r="B266">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aericson.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C266">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aericson.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D266">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aericson.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>timbercon.com</t>
+        </is>
+      </c>
+      <c r="B267">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atimbercon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C267">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atimbercon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D267">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atimbercon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>amphenol-mcp.com</t>
+        </is>
+      </c>
+      <c r="B268">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-mcp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C268">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-mcp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D268">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-mcp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>corsairelectricalconnectors.com</t>
+        </is>
+      </c>
+      <c r="B269">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acorsairelectricalconnectors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C269">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acorsairelectricalconnectors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D269">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acorsairelectricalconnectors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>waytekwire.com</t>
+        </is>
+      </c>
+      <c r="B270">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awaytekwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C270">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awaytekwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D270">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awaytekwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>tpcwire.com</t>
+        </is>
+      </c>
+      <c r="B271">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atpcwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C271">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atpcwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D271">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atpcwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>acecontrols.com</t>
+        </is>
+      </c>
+      <c r="B272">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aacecontrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C272">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aacecontrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D272">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aacecontrols.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>adchem.com</t>
+        </is>
+      </c>
+      <c r="B273">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aadchem.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C273">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aadchem.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D273">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aadchem.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>habonim.com</t>
+        </is>
+      </c>
+      <c r="B274">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahabonim.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C274">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahabonim.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D274">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahabonim.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>industrialautomationco.com</t>
+        </is>
+      </c>
+      <c r="B275">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aindustrialautomationco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C275">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aindustrialautomationco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D275">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aindustrialautomationco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>stevenengineering.com</t>
+        </is>
+      </c>
+      <c r="B276">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astevenengineering.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C276">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astevenengineering.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D276">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astevenengineering.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>aircostcontrol.com</t>
+        </is>
+      </c>
+      <c r="B277">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaircostcontrol.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C277">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaircostcontrol.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D277">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaircostcontrol.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>itt-infrastructure.com</t>
+        </is>
+      </c>
+      <c r="B278">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aitt-infrastructure.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C278">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aitt-infrastructure.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D278">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aitt-infrastructure.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>trustautomation.com</t>
+        </is>
+      </c>
+      <c r="B279">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atrustautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C279">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atrustautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D279">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atrustautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>diversified-automation.com</t>
+        </is>
+      </c>
+      <c r="B280">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adiversified-automation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C280">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adiversified-automation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D280">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adiversified-automation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>datasoft.com</t>
+        </is>
+      </c>
+      <c r="B281">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adatasoft.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C281">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adatasoft.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D281">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adatasoft.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>industrialpackaging.com</t>
+        </is>
+      </c>
+      <c r="B282">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aindustrialpackaging.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C282">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aindustrialpackaging.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D282">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aindustrialpackaging.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>ipack.com</t>
+        </is>
+      </c>
+      <c r="B283">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aipack.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C283">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aipack.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D283">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aipack.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>usconec.com</t>
+        </is>
+      </c>
+      <c r="B284">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ausconec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C284">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ausconec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D284">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ausconec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>uppi.com</t>
+        </is>
+      </c>
+      <c r="B285">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Auppi.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C285">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Auppi.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D285">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Auppi.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>arnev.com</t>
+        </is>
+      </c>
+      <c r="B286">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aarnev.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C286">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aarnev.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D286">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aarnev.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>dynalabtesters.com</t>
+        </is>
+      </c>
+      <c r="B287">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adynalabtesters.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C287">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adynalabtesters.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D287">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adynalabtesters.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>ect-cpg.com</t>
+        </is>
+      </c>
+      <c r="B288">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aect-cpg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C288">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aect-cpg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D288">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aect-cpg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>trimack.com</t>
+        </is>
+      </c>
+      <c r="B289">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atrimack.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C289">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atrimack.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D289">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atrimack.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>magnemotion.com</t>
+        </is>
+      </c>
+      <c r="B290">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amagnemotion.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C290">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amagnemotion.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D290">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amagnemotion.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>amphenolbroadband.com</t>
+        </is>
+      </c>
+      <c r="B291">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolbroadband.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C291">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolbroadband.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D291">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolbroadband.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>codecorp.com</t>
+        </is>
+      </c>
+      <c r="B292">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acodecorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C292">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acodecorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D292">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acodecorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>tellingindustries.com</t>
+        </is>
+      </c>
+      <c r="B293">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atellingindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C293">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atellingindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D293">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atellingindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>deltarf.com</t>
+        </is>
+      </c>
+      <c r="B294">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adeltarf.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C294">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adeltarf.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D294">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adeltarf.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>kelcoind.com</t>
+        </is>
+      </c>
+      <c r="B295">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akelcoind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C295">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akelcoind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D295">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akelcoind.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>cdmelectronics.com</t>
+        </is>
+      </c>
+      <c r="B296">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acdmelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C296">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acdmelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D296">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acdmelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>rmhsystems.com</t>
+        </is>
+      </c>
+      <c r="B297">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Armhsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C297">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Armhsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D297">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Armhsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>processsolutions.com</t>
+        </is>
+      </c>
+      <c r="B298">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprocesssolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C298">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprocesssolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D298">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprocesssolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>cembreinc.com</t>
+        </is>
+      </c>
+      <c r="B299">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acembreinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C299">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acembreinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D299">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acembreinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>bertelkamp.com</t>
+        </is>
+      </c>
+      <c r="B300">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abertelkamp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C300">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abertelkamp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D300">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abertelkamp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>sortingrobotics.com</t>
+        </is>
+      </c>
+      <c r="B301">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asortingrobotics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C301">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asortingrobotics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D301">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asortingrobotics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>teledynedefenseelectronics.com</t>
+        </is>
+      </c>
+      <c r="B302">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ateledynedefenseelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C302">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ateledynedefenseelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D302">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ateledynedefenseelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ametek-ecp.com</t>
+        </is>
+      </c>
+      <c r="B303">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aametek-ecp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C303">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aametek-ecp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D303">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aametek-ecp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>cui.com</t>
+        </is>
+      </c>
+      <c r="B304">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acui.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C304">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acui.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D304">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acui.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>rockfordsystems.com</t>
+        </is>
+      </c>
+      <c r="B305">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arockfordsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C305">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arockfordsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D305">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arockfordsystems.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>microvu.com</t>
+        </is>
+      </c>
+      <c r="B306">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicrovu.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C306">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicrovu.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D306">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amicrovu.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>hamer-fischbein.com</t>
+        </is>
+      </c>
+      <c r="B307">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahamer-fischbein.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C307">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahamer-fischbein.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D307">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahamer-fischbein.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>jhfoster.com</t>
+        </is>
+      </c>
+      <c r="B308">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajhfoster.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C308">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajhfoster.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D308">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajhfoster.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>mceautomation.com</t>
+        </is>
+      </c>
+      <c r="B309">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amceautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C309">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amceautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D309">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amceautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>acldigital.com</t>
+        </is>
+      </c>
+      <c r="B310">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aacldigital.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C310">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aacldigital.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D310">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aacldigital.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>connecticc.com</t>
+        </is>
+      </c>
+      <c r="B311">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aconnecticc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C311">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aconnecticc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D311">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aconnecticc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>thelightconnection.com</t>
+        </is>
+      </c>
+      <c r="B312">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athelightconnection.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C312">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athelightconnection.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D312">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athelightconnection.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>coldwatermachine.com</t>
+        </is>
+      </c>
+      <c r="B313">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acoldwatermachine.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C313">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acoldwatermachine.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D313">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acoldwatermachine.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>haydonkerkpittman.com</t>
+        </is>
+      </c>
+      <c r="B314">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahaydonkerkpittman.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C314">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahaydonkerkpittman.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D314">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahaydonkerkpittman.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>marchantschmidt.com</t>
+        </is>
+      </c>
+      <c r="B315">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amarchantschmidt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C315">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amarchantschmidt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D315">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amarchantschmidt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>picarro.com</t>
+        </is>
+      </c>
+      <c r="B316">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apicarro.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C316">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apicarro.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D316">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apicarro.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>ikont.com</t>
+        </is>
+      </c>
+      <c r="B317">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aikont.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C317">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aikont.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D317">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aikont.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>procastparts.com</t>
+        </is>
+      </c>
+      <c r="B318">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprocastparts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C318">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprocastparts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D318">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprocastparts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>amphenolpcd.com</t>
+        </is>
+      </c>
+      <c r="B319">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolpcd.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C319">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolpcd.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D319">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolpcd.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>nsiindustries.com</t>
+        </is>
+      </c>
+      <c r="B320">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ansiindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C320">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ansiindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D320">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ansiindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>carolinaprecision.com</t>
+        </is>
+      </c>
+      <c r="B321">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acarolinaprecision.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C321">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acarolinaprecision.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D321">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acarolinaprecision.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>qosina.com</t>
+        </is>
+      </c>
+      <c r="B322">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aqosina.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C322">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aqosina.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D322">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aqosina.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>genmarkautomation.com</t>
+        </is>
+      </c>
+      <c r="B323">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agenmarkautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C323">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agenmarkautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D323">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agenmarkautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>triadtechnologies.com</t>
+        </is>
+      </c>
+      <c r="B324">
+        <f>HYPERLINK("https://www.triadtechnologies.com/fluid-connectors/quick-couplings.html", "YES")</f>
+        <v/>
+      </c>
+      <c r="C324">
+        <f>HYPERLINK("https://www.triadtechnologies.com/fluid-connectors/quick-couplings.html", "YES")</f>
+        <v/>
+      </c>
+      <c r="D324">
+        <f>HYPERLINK("https://www.triadtechnologies.com/fluid-connectors/quick-couplings.html", "YES")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>nelcoproducts.com</t>
+        </is>
+      </c>
+      <c r="B325">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anelcoproducts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C325">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anelcoproducts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D325">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anelcoproducts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>araymond-life.com</t>
+        </is>
+      </c>
+      <c r="B326">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaraymond-life.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C326">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaraymond-life.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D326">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaraymond-life.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>qsr-inc.com</t>
+        </is>
+      </c>
+      <c r="B327">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aqsr-inc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C327">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aqsr-inc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D327">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aqsr-inc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>rg-group.com</t>
+        </is>
+      </c>
+      <c r="B328">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arg-group.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C328">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arg-group.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D328">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arg-group.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>eurotherm.com</t>
+        </is>
+      </c>
+      <c r="B329">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeurotherm.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C329">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeurotherm.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D329">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeurotherm.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>acrosser.com.tw</t>
+        </is>
+      </c>
+      <c r="B330">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aacrosser.com.tw+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C330">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aacrosser.com.tw+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D330">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aacrosser.com.tw+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>neodyn.com</t>
+        </is>
+      </c>
+      <c r="B331">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aneodyn.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C331">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aneodyn.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D331">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aneodyn.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>amphenol-industrial.com</t>
+        </is>
+      </c>
+      <c r="B332">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-industrial.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C332">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-industrial.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D332">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-industrial.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>laron.com</t>
+        </is>
+      </c>
+      <c r="B333">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alaron.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C333">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alaron.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D333">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alaron.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>svmicrowave.com</t>
+        </is>
+      </c>
+      <c r="B334">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asvmicrowave.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C334">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asvmicrowave.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D334">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asvmicrowave.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>therm-x.com</t>
+        </is>
+      </c>
+      <c r="B335">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atherm-x.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C335">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atherm-x.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D335">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atherm-x.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>suncallamerica.com</t>
+        </is>
+      </c>
+      <c r="B336">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asuncallamerica.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C336">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asuncallamerica.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D336">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asuncallamerica.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>valin.com</t>
+        </is>
+      </c>
+      <c r="B337">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avalin.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C337">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avalin.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D337">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avalin.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>triotech.com</t>
+        </is>
+      </c>
+      <c r="B338">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atriotech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C338">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atriotech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D338">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atriotech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>comnet.net</t>
+        </is>
+      </c>
+      <c r="B339">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acomnet.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C339">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acomnet.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D339">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acomnet.net+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>teknic.com</t>
+        </is>
+      </c>
+      <c r="B340">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ateknic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C340">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ateknic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D340">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ateknic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>tolomatic.com</t>
+        </is>
+      </c>
+      <c r="B341">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atolomatic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C341">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atolomatic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D341">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atolomatic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>ashleyward.com</t>
+        </is>
+      </c>
+      <c r="B342">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aashleyward.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C342">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aashleyward.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D342">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aashleyward.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>dmctools.com</t>
+        </is>
+      </c>
+      <c r="B343">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Admctools.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C343">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Admctools.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D343">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Admctools.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>penray.com</t>
+        </is>
+      </c>
+      <c r="B344">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apenray.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C344">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apenray.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D344">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apenray.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>vertech.com</t>
+        </is>
+      </c>
+      <c r="B345">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avertech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C345">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avertech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D345">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avertech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>actlighting.com</t>
+        </is>
+      </c>
+      <c r="B346">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aactlighting.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C346">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aactlighting.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D346">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aactlighting.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>nexans.us</t>
+        </is>
+      </c>
+      <c r="B347">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anexans.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C347">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anexans.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D347">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anexans.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>douglaselectrical.com</t>
+        </is>
+      </c>
+      <c r="B348">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adouglaselectrical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C348">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adouglaselectrical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D348">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adouglaselectrical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>osielectronics.com</t>
+        </is>
+      </c>
+      <c r="B349">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aosielectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C349">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aosielectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D349">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aosielectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>coastalws.com</t>
+        </is>
+      </c>
+      <c r="B350">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acoastalws.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C350">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acoastalws.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D350">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acoastalws.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>axonep.com</t>
+        </is>
+      </c>
+      <c r="B351">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaxonep.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C351">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaxonep.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D351">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaxonep.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>messer-cutting.com</t>
+        </is>
+      </c>
+      <c r="B352">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amesser-cutting.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C352">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amesser-cutting.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D352">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amesser-cutting.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>diakont.com</t>
+        </is>
+      </c>
+      <c r="B353">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adiakont.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C353">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adiakont.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D353">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adiakont.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>ductmate.com</t>
+        </is>
+      </c>
+      <c r="B354">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aductmate.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C354">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aductmate.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D354">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aductmate.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>yujinrobot.com</t>
+        </is>
+      </c>
+      <c r="B355">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ayujinrobot.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C355">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ayujinrobot.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D355">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ayujinrobot.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>vinsonprocess.com</t>
+        </is>
+      </c>
+      <c r="B356">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avinsonprocess.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C356">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avinsonprocess.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D356">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avinsonprocess.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>schneiderelectricrepair.com</t>
+        </is>
+      </c>
+      <c r="B357">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aschneiderelectricrepair.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C357">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aschneiderelectricrepair.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D357">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aschneiderelectricrepair.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>fralock.com</t>
+        </is>
+      </c>
+      <c r="B358">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afralock.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C358">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afralock.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D358">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afralock.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>carotek.com</t>
+        </is>
+      </c>
+      <c r="B359">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acarotek.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C359">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acarotek.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D359">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acarotek.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>tencarva.com</t>
+        </is>
+      </c>
+      <c r="B360">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atencarva.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C360">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atencarva.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D360">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atencarva.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>reverecontrol.com</t>
+        </is>
+      </c>
+      <c r="B361">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Areverecontrol.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C361">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Areverecontrol.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D361">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Areverecontrol.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>dmcpower.com</t>
+        </is>
+      </c>
+      <c r="B362">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Admcpower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C362">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Admcpower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D362">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Admcpower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>panconcorp.com</t>
+        </is>
+      </c>
+      <c r="B363">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apanconcorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C363">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apanconcorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D363">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apanconcorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>aecsinc.com</t>
+        </is>
+      </c>
+      <c r="B364">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaecsinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C364">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaecsinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D364">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaecsinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>westfaliausa.com</t>
+        </is>
+      </c>
+      <c r="B365">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awestfaliausa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C365">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awestfaliausa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D365">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awestfaliausa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>walkerindustrial.com</t>
+        </is>
+      </c>
+      <c r="B366">
+        <f>HYPERLINK("https://www.walkerindustrial.com/cindex.asp", "YES")</f>
+        <v/>
+      </c>
+      <c r="C366">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awalkerindustrial.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D366">
+        <f>HYPERLINK("https://www.walkerindustrial.com/cindex.asp", "YES")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>southwestmicrowave.com</t>
+        </is>
+      </c>
+      <c r="B367">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asouthwestmicrowave.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C367">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asouthwestmicrowave.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D367">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asouthwestmicrowave.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>livhaven.com</t>
+        </is>
+      </c>
+      <c r="B368">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alivhaven.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C368">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alivhaven.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D368">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alivhaven.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>advantech-bb.com</t>
+        </is>
+      </c>
+      <c r="B369">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aadvantech-bb.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C369">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aadvantech-bb.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D369">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aadvantech-bb.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>nyelubricants.com</t>
+        </is>
+      </c>
+      <c r="B370">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anyelubricants.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C370">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anyelubricants.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D370">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anyelubricants.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>turck.us</t>
+        </is>
+      </c>
+      <c r="B371">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aturck.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C371">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aturck.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D371">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aturck.us+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>eammosca.com</t>
+        </is>
+      </c>
+      <c r="B372">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeammosca.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C372">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeammosca.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D372">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeammosca.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>globtek.com</t>
+        </is>
+      </c>
+      <c r="B373">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aglobtek.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C373">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aglobtek.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D373">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aglobtek.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>engvalves.com</t>
+        </is>
+      </c>
+      <c r="B374">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aengvalves.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C374">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aengvalves.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D374">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aengvalves.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>mill-max.com</t>
+        </is>
+      </c>
+      <c r="B375">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amill-max.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C375">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amill-max.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D375">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amill-max.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>caid.com</t>
+        </is>
+      </c>
+      <c r="B376">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acaid.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C376">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acaid.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D376">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acaid.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>jst.com</t>
+        </is>
+      </c>
+      <c r="B377">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajst.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C377">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajst.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D377">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajst.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>williamsform.com</t>
+        </is>
+      </c>
+      <c r="B378">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awilliamsform.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C378">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awilliamsform.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D378">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awilliamsform.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>cimon.com</t>
+        </is>
+      </c>
+      <c r="B379">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acimon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C379">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acimon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D379">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acimon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>difacto.com</t>
+        </is>
+      </c>
+      <c r="B380">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adifacto.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C380">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adifacto.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D380">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adifacto.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>harpak-ulma.com</t>
+        </is>
+      </c>
+      <c r="B381">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aharpak-ulma.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C381">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aharpak-ulma.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D381">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aharpak-ulma.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>winn-marion.com</t>
+        </is>
+      </c>
+      <c r="B382">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awinn-marion.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C382">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awinn-marion.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D382">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awinn-marion.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>posital.com</t>
+        </is>
+      </c>
+      <c r="B383">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aposital.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C383">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aposital.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D383">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aposital.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>eastekinternational.com</t>
+        </is>
+      </c>
+      <c r="B384">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeastekinternational.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C384">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeastekinternational.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D384">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeastekinternational.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>h-j.com</t>
+        </is>
+      </c>
+      <c r="B385">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ah-j.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C385">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ah-j.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D385">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ah-j.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>flexaust.com</t>
+        </is>
+      </c>
+      <c r="B386">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aflexaust.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C386">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aflexaust.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D386">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aflexaust.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>bystronicusa.com</t>
+        </is>
+      </c>
+      <c r="B387">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abystronicusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C387">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abystronicusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D387">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abystronicusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>giadatech.com</t>
+        </is>
+      </c>
+      <c r="B388">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agiadatech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C388">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agiadatech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D388">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agiadatech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>cypressindustries.com</t>
+        </is>
+      </c>
+      <c r="B389">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acypressindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C389">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acypressindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D389">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acypressindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>ksmelectronics.com</t>
+        </is>
+      </c>
+      <c r="B390">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aksmelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C390">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aksmelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D390">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aksmelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>switchcraft.com</t>
+        </is>
+      </c>
+      <c r="B391">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aswitchcraft.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C391">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aswitchcraft.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D391">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aswitchcraft.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>kellertechnology.com</t>
+        </is>
+      </c>
+      <c r="B392">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akellertechnology.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C392">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akellertechnology.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D392">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akellertechnology.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>opto22.com</t>
+        </is>
+      </c>
+      <c r="B393">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aopto22.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C393">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aopto22.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D393">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aopto22.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>rdaltanova.com</t>
+        </is>
+      </c>
+      <c r="B394">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ardaltanova.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C394">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ardaltanova.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D394">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ardaltanova.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>fraba.com</t>
+        </is>
+      </c>
+      <c r="B395">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afraba.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C395">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afraba.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D395">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afraba.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>murrayequipment.com</t>
+        </is>
+      </c>
+      <c r="B396">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amurrayequipment.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C396">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amurrayequipment.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D396">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amurrayequipment.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>aepetsche.com</t>
+        </is>
+      </c>
+      <c r="B397">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaepetsche.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C397">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaepetsche.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D397">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaepetsche.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>aircomfort.com</t>
+        </is>
+      </c>
+      <c r="B398">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaircomfort.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C398">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaircomfort.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D398">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaircomfort.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>proconexdirect.com</t>
+        </is>
+      </c>
+      <c r="B399">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aproconexdirect.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C399">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aproconexdirect.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D399">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aproconexdirect.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>matrixti.com</t>
+        </is>
+      </c>
+      <c r="B400">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amatrixti.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C400">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amatrixti.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D400">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amatrixti.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>ksaria.com</t>
+        </is>
+      </c>
+      <c r="B401">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aksaria.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C401">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aksaria.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D401">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aksaria.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>neffautomation.com</t>
+        </is>
+      </c>
+      <c r="B402">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aneffautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C402">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aneffautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D402">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aneffautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>berkshiregrey.com</t>
+        </is>
+      </c>
+      <c r="B403">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aberkshiregrey.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C403">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aberkshiregrey.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D403">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aberkshiregrey.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>aciusa.org</t>
+        </is>
+      </c>
+      <c r="B404">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaciusa.org+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C404">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaciusa.org+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D404">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaciusa.org+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>cates.com</t>
+        </is>
+      </c>
+      <c r="B405">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acates.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C405">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acates.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D405">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acates.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>facteon.global</t>
+        </is>
+      </c>
+      <c r="B406">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afacteon.global+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C406">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afacteon.global+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D406">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afacteon.global+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>industrialcontrolsonline.com</t>
+        </is>
+      </c>
+      <c r="B407">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aindustrialcontrolsonline.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C407">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aindustrialcontrolsonline.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D407">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aindustrialcontrolsonline.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>kanawhascales.com</t>
+        </is>
+      </c>
+      <c r="B408">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akanawhascales.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C408">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akanawhascales.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D408">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akanawhascales.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>awcwire.com</t>
+        </is>
+      </c>
+      <c r="B409">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aawcwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C409">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aawcwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D409">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aawcwire.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>eagletechnologies.com</t>
+        </is>
+      </c>
+      <c r="B410">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeagletechnologies.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C410">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeagletechnologies.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D410">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeagletechnologies.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>electro-matic.com</t>
+        </is>
+      </c>
+      <c r="B411">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aelectro-matic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C411">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aelectro-matic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D411">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aelectro-matic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>rosslaresecurity.com</t>
+        </is>
+      </c>
+      <c r="B412">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arosslaresecurity.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C412">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arosslaresecurity.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D412">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arosslaresecurity.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>ittcannon.com</t>
+        </is>
+      </c>
+      <c r="B413">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aittcannon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C413">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aittcannon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D413">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aittcannon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>occfiber.com</t>
+        </is>
+      </c>
+      <c r="B414">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoccfiber.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C414">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoccfiber.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D414">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aoccfiber.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>ouster.com</t>
+        </is>
+      </c>
+      <c r="B415">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aouster.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C415">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aouster.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D415">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aouster.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>seegrid.com</t>
+        </is>
+      </c>
+      <c r="B416">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aseegrid.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C416">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aseegrid.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D416">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aseegrid.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>cbtcompany.com</t>
+        </is>
+      </c>
+      <c r="B417">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acbtcompany.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C417">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acbtcompany.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D417">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acbtcompany.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>stormpowercomponents.com</t>
+        </is>
+      </c>
+      <c r="B418">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astormpowercomponents.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C418">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astormpowercomponents.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D418">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astormpowercomponents.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>lexproducts.com</t>
+        </is>
+      </c>
+      <c r="B419">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alexproducts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C419">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alexproducts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D419">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Alexproducts.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>brasscraft.com</t>
+        </is>
+      </c>
+      <c r="B420">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abrasscraft.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C420">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abrasscraft.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D420">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abrasscraft.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>hyspeco.com</t>
+        </is>
+      </c>
+      <c r="B421">
+        <f>HYPERLINK("https://www.hyspeco.com/itemdetail/BH8-60Y", "YES")</f>
+        <v/>
+      </c>
+      <c r="C421">
+        <f>HYPERLINK("https://www.hyspeco.com/itemdetail/BH8-60Y", "YES")</f>
+        <v/>
+      </c>
+      <c r="D421">
+        <f>HYPERLINK("https://www.hyspeco.com/itemdetail/BH8-60Y", "YES")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>meltric.com</t>
+        </is>
+      </c>
+      <c r="B422">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ameltric.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C422">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ameltric.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D422">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ameltric.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>sunbeltsupply.com</t>
+        </is>
+      </c>
+      <c r="B423">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asunbeltsupply.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C423">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asunbeltsupply.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D423">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asunbeltsupply.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>integra-tech.com</t>
+        </is>
+      </c>
+      <c r="B424">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aintegra-tech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C424">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aintegra-tech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D424">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aintegra-tech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>parpro.com</t>
+        </is>
+      </c>
+      <c r="B425">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aparpro.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C425">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aparpro.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D425">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aparpro.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>heilindasia.com</t>
+        </is>
+      </c>
+      <c r="B426">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aheilindasia.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C426">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aheilindasia.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D426">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aheilindasia.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>spectramedical.com</t>
+        </is>
+      </c>
+      <c r="B427">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspectramedical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C427">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspectramedical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D427">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aspectramedical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>eckhartusa.com</t>
+        </is>
+      </c>
+      <c r="B428">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeckhartusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C428">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeckhartusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D428">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeckhartusa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>palpilot.com</t>
+        </is>
+      </c>
+      <c r="B429">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apalpilot.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C429">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apalpilot.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D429">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apalpilot.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>yeu.com</t>
+        </is>
+      </c>
+      <c r="B430">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ayeu.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C430">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ayeu.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D430">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ayeu.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>amphenol-icc.com</t>
+        </is>
+      </c>
+      <c r="B431">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-icc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C431">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-icc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D431">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-icc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>airhydropower.com</t>
+        </is>
+      </c>
+      <c r="B432">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aairhydropower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C432">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aairhydropower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D432">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aairhydropower.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>omnetics.com</t>
+        </is>
+      </c>
+      <c r="B433">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aomnetics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C433">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aomnetics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D433">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aomnetics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>rfindustries.com</t>
+        </is>
+      </c>
+      <c r="B434">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arfindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C434">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arfindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D434">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Arfindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>ati-ia.com</t>
+        </is>
+      </c>
+      <c r="B435">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aati-ia.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C435">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aati-ia.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D435">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aati-ia.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>meritec.com</t>
+        </is>
+      </c>
+      <c r="B436">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ameritec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C436">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ameritec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D436">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ameritec.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>moreycorp.com</t>
+        </is>
+      </c>
+      <c r="B437">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amoreycorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C437">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amoreycorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D437">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amoreycorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>amphenol-ns.com</t>
+        </is>
+      </c>
+      <c r="B438">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-ns.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C438">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-ns.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D438">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol-ns.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>amprobotics.com</t>
+        </is>
+      </c>
+      <c r="B439">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamprobotics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C439">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamprobotics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D439">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamprobotics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>norco-group.com</t>
+        </is>
+      </c>
+      <c r="B440">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anorco-group.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C440">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anorco-group.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D440">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anorco-group.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>motoman.com</t>
+        </is>
+      </c>
+      <c r="B441">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amotoman.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C441">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amotoman.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D441">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amotoman.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>fogt.com</t>
+        </is>
+      </c>
+      <c r="B442">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afogt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C442">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afogt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D442">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Afogt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>mtecorp.com</t>
+        </is>
+      </c>
+      <c r="B443">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amtecorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C443">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amtecorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D443">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amtecorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>alco.com</t>
+        </is>
+      </c>
+      <c r="B444">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aalco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C444">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aalco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D444">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aalco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>jhf.com</t>
+        </is>
+      </c>
+      <c r="B445">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajhf.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C445">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajhf.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D445">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajhf.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>veryxtech.com</t>
+        </is>
+      </c>
+      <c r="B446">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Averyxtech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C446">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Averyxtech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D446">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Averyxtech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>aflhyperscale.com</t>
+        </is>
+      </c>
+      <c r="B447">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaflhyperscale.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C447">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaflhyperscale.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D447">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaflhyperscale.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>durexindustries.com</t>
+        </is>
+      </c>
+      <c r="B448">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adurexindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C448">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adurexindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D448">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adurexindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>swanhose.com</t>
+        </is>
+      </c>
+      <c r="B449">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aswanhose.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C449">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aswanhose.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D449">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aswanhose.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>marinoware.com</t>
+        </is>
+      </c>
+      <c r="B450">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amarinoware.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C450">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amarinoware.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D450">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amarinoware.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>adhq.com</t>
+        </is>
+      </c>
+      <c r="B451">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aadhq.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C451">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aadhq.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D451">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aadhq.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>rmenergy.com</t>
+        </is>
+      </c>
+      <c r="B452">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Armenergy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C452">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Armenergy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D452">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Armenergy.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>phdinc.com</t>
+        </is>
+      </c>
+      <c r="B453">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aphdinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C453">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aphdinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D453">
+        <f>HYPERLINK("https://www.phdinc.com/pdf/PHDV2.pdf", "YES")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>cimtecautomation.com</t>
+        </is>
+      </c>
+      <c r="B454">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acimtecautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C454">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acimtecautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D454">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acimtecautomation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>shuttle.com</t>
+        </is>
+      </c>
+      <c r="B455">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ashuttle.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C455">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ashuttle.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D455">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ashuttle.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>cct-inc.com</t>
+        </is>
+      </c>
+      <c r="B456">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acct-inc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C456">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acct-inc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D456">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acct-inc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>connectpositronic.com</t>
+        </is>
+      </c>
+      <c r="B457">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aconnectpositronic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C457">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aconnectpositronic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D457">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aconnectpositronic.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>segue-mfg.com</t>
+        </is>
+      </c>
+      <c r="B458">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asegue-mfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C458">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asegue-mfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D458">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asegue-mfg.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>turntide.com</t>
+        </is>
+      </c>
+      <c r="B459">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aturntide.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C459">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aturntide.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D459">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aturntide.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>reflexallen.com</t>
+        </is>
+      </c>
+      <c r="B460">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Areflexallen.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C460">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Areflexallen.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D460">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Areflexallen.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>pmeasuring.com</t>
+        </is>
+      </c>
+      <c r="B461">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apmeasuring.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C461">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apmeasuring.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D461">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apmeasuring.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>aerotech.com</t>
+        </is>
+      </c>
+      <c r="B462">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaerotech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C462">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaerotech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D462">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaerotech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>easternia.com</t>
+        </is>
+      </c>
+      <c r="B463">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeasternia.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C463">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aeasternia.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D463">
+        <f>HYPERLINK("https://www.easternia.com/ASSETS/DOCUMENTS/ITEMS/EN/Morse_007493_Catalog.pdf", "YES")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>aint.com</t>
+        </is>
+      </c>
+      <c r="B464">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaint.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C464">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaint.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D464">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaint.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>hydraulic-supply.com</t>
+        </is>
+      </c>
+      <c r="B465">
+        <f>HYPERLINK("https://www.hydraulic-supply.com/ff10166.html", "YES")</f>
+        <v/>
+      </c>
+      <c r="C465">
+        <f>HYPERLINK("https://www.hydraulic-supply.com/ff10166.html", "YES")</f>
+        <v/>
+      </c>
+      <c r="D465">
+        <f>HYPERLINK("https://www.hydraulic-supply.com/5600-series-quick-disconnect-5602-12-10s.html", "YES")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>timesmicrowave.com</t>
+        </is>
+      </c>
+      <c r="B466">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atimesmicrowave.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C466">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atimesmicrowave.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D466">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atimesmicrowave.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>axogeninc.com</t>
+        </is>
+      </c>
+      <c r="B467">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaxogeninc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C467">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaxogeninc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D467">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aaxogeninc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>phoenixmecano.com</t>
+        </is>
+      </c>
+      <c r="B468">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aphoenixmecano.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C468">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aphoenixmecano.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D468">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aphoenixmecano.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>kurt.com</t>
+        </is>
+      </c>
+      <c r="B469">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akurt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C469">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akurt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D469">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akurt.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>ctcglobal.com</t>
+        </is>
+      </c>
+      <c r="B470">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Actcglobal.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C470">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Actcglobal.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D470">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Actcglobal.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>deshazo.com</t>
+        </is>
+      </c>
+      <c r="B471">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adeshazo.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C471">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adeshazo.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D471">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adeshazo.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>hermeticsolutions.com</t>
+        </is>
+      </c>
+      <c r="B472">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahermeticsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C472">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahermeticsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D472">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahermeticsolutions.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>hosemaster.com</t>
+        </is>
+      </c>
+      <c r="B473">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahosemaster.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C473">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahosemaster.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D473">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahosemaster.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>pca-llc.com</t>
+        </is>
+      </c>
+      <c r="B474">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apca-llc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C474">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apca-llc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D474">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apca-llc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>visionnav.com</t>
+        </is>
+      </c>
+      <c r="B475">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avisionnav.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C475">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avisionnav.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D475">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Avisionnav.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>emc-machinery.com</t>
+        </is>
+      </c>
+      <c r="B476">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aemc-machinery.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C476">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aemc-machinery.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D476">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aemc-machinery.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>ecmindustries.com</t>
+        </is>
+      </c>
+      <c r="B477">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aecmindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C477">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aecmindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D477">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aecmindustries.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>elcam-medical.com</t>
+        </is>
+      </c>
+      <c r="B478">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aelcam-medical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C478">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aelcam-medical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D478">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aelcam-medical.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>geospace.com</t>
+        </is>
+      </c>
+      <c r="B479">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ageospace.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C479">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ageospace.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D479">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ageospace.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>yamazen.com</t>
+        </is>
+      </c>
+      <c r="B480">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ayamazen.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C480">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ayamazen.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D480">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ayamazen.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>wolterinc.com</t>
+        </is>
+      </c>
+      <c r="B481">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awolterinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C481">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awolterinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D481">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Awolterinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>process-insights.com</t>
+        </is>
+      </c>
+      <c r="B482">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprocess-insights.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C482">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprocess-insights.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D482">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aprocess-insights.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>hartfiel.com</t>
+        </is>
+      </c>
+      <c r="B483">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahartfiel.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C483">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahartfiel.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D483">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahartfiel.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>senco.com</t>
+        </is>
+      </c>
+      <c r="B484">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asenco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C484">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asenco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D484">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asenco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>atltechnology.com</t>
+        </is>
+      </c>
+      <c r="B485">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aatltechnology.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C485">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aatltechnology.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D485">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aatltechnology.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>etechgroup.com</t>
+        </is>
+      </c>
+      <c r="B486">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aetechgroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C486">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aetechgroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D486">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aetechgroup.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>xencor.com</t>
+        </is>
+      </c>
+      <c r="B487">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Axencor.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C487">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Axencor.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D487">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Axencor.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>rgausa.com</t>
+        </is>
+      </c>
+      <c r="B488">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Argausa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C488">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Argausa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D488">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Argausa.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>cnlinko.com</t>
+        </is>
+      </c>
+      <c r="B489">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acnlinko.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C489">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acnlinko.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D489">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acnlinko.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>inprocorp.com</t>
+        </is>
+      </c>
+      <c r="B490">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainprocorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C490">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainprocorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D490">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainprocorp.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>marshelectronics.com</t>
+        </is>
+      </c>
+      <c r="B491">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amarshelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C491">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amarshelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D491">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Amarshelectronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>erich-jaeger.com</t>
+        </is>
+      </c>
+      <c r="B492">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aerich-jaeger.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C492">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aerich-jaeger.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D492">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aerich-jaeger.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>ilsco.com</t>
+        </is>
+      </c>
+      <c r="B493">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ailsco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C493">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ailsco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D493">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ailsco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>peigenesis.com</t>
+        </is>
+      </c>
+      <c r="B494">
+        <f>HYPERLINK("https://www.peigenesis.com/images/content/pei_tabs/te-connectivity/circular/quadrax-38999/eng_ds_1-1773922-9_deutsch38999_0819.pdf", "YES")</f>
+        <v/>
+      </c>
+      <c r="C494">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apeigenesis.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D494">
+        <f>HYPERLINK("https://www.peigenesis.com/images/content/pei_tabs/te-connectivity/circular/quadrax-38999/eng_ds_1-1773922-9_deutsch38999_0819.pdf", "YES")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>chatsworth.com</t>
+        </is>
+      </c>
+      <c r="B495">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Achatsworth.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C495">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Achatsworth.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D495">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Achatsworth.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>cpcworldwide.com</t>
+        </is>
+      </c>
+      <c r="B496">
+        <f>HYPERLINK("https://www.cpcworldwide.com/Capabilities/Intelligent-Fluid-Connections", "YES")</f>
+        <v/>
+      </c>
+      <c r="C496">
+        <f>HYPERLINK("https://www.cpcworldwide.com/Capabilities/Intelligent-Fluid-Connections", "YES")</f>
+        <v/>
+      </c>
+      <c r="D496">
+        <f>HYPERLINK("https://www.cpcworldwide.com/Capabilities/Intelligent-Fluid-Connections", "YES")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>dornerconveyors.com</t>
+        </is>
+      </c>
+      <c r="B497">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adornerconveyors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C497">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adornerconveyors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D497">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Adornerconveyors.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>knfilters.com</t>
+        </is>
+      </c>
+      <c r="B498">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aknfilters.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C498">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aknfilters.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D498">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aknfilters.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>baldwintech.com</t>
+        </is>
+      </c>
+      <c r="B499">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abaldwintech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C499">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abaldwintech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D499">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abaldwintech.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>amphenolrf.com</t>
+        </is>
+      </c>
+      <c r="B500">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolrf.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C500">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolrf.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D500">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenolrf.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>setpointis.com</t>
+        </is>
+      </c>
+      <c r="B501">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asetpointis.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C501">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asetpointis.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D501">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asetpointis.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>heubelshaw.com</t>
+        </is>
+      </c>
+      <c r="B502">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aheubelshaw.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C502">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aheubelshaw.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D502">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aheubelshaw.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>airlinehyd.com</t>
+        </is>
+      </c>
+      <c r="B503">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aairlinehyd.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C503">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aairlinehyd.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D503">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aairlinehyd.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>hurco.com</t>
+        </is>
+      </c>
+      <c r="B504">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahurco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C504">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahurco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D504">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahurco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>powermation.com</t>
+        </is>
+      </c>
+      <c r="B505">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apowermation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C505">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apowermation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D505">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apowermation.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>novaspect.com</t>
+        </is>
+      </c>
+      <c r="B506">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anovaspect.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C506">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anovaspect.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D506">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anovaspect.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>hisco.com</t>
+        </is>
+      </c>
+      <c r="B507">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahisco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C507">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahisco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D507">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ahisco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>bray.com</t>
+        </is>
+      </c>
+      <c r="B508">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abray.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C508">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abray.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D508">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Abray.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>zollner-electronics.com</t>
+        </is>
+      </c>
+      <c r="B509">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Azollner-electronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C509">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Azollner-electronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D509">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Azollner-electronics.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>crossco.com</t>
+        </is>
+      </c>
+      <c r="B510">
+        <f>HYPERLINK("https://www.crossco.com/products/hose-and-fittings/fittings-couplings-connectors/", "YES")</f>
+        <v/>
+      </c>
+      <c r="C510">
+        <f>HYPERLINK("https://www.crossco.com/products/hose-and-fittings/fittings-couplings-connectors/", "YES")</f>
+        <v/>
+      </c>
+      <c r="D510">
+        <f>HYPERLINK("https://www.crossco.com/products/hose-and-fittings/fittings-couplings-connectors/", "YES")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>gofloworks.com</t>
+        </is>
+      </c>
+      <c r="B511">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agofloworks.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C511">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agofloworks.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D511">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agofloworks.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>flexfab.com</t>
+        </is>
+      </c>
+      <c r="B512">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aflexfab.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C512">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aflexfab.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D512">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aflexfab.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>mfcp.com</t>
+        </is>
+      </c>
+      <c r="B513">
+        <f>HYPERLINK("https://www.mfcp.com/our-blog/all", "YES")</f>
+        <v/>
+      </c>
+      <c r="C513">
+        <f>HYPERLINK("https://www.mfcp.com/our-blog/topic/product-update", "YES")</f>
+        <v/>
+      </c>
+      <c r="D513">
+        <f>HYPERLINK("https://www.mfcp.com/our-blog/topic/product-update", "YES")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>siemon.com</t>
+        </is>
+      </c>
+      <c r="B514">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asiemon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C514">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asiemon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D514">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asiemon.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>generalfinance.com</t>
+        </is>
+      </c>
+      <c r="B515">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ageneralfinance.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C515">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ageneralfinance.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D515">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ageneralfinance.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>the-sunlight-group.com</t>
+        </is>
+      </c>
+      <c r="B516">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athe-sunlight-group.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C516">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athe-sunlight-group.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D516">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Athe-sunlight-group.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>kyocera-avx.com</t>
+        </is>
+      </c>
+      <c r="B517">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akyocera-avx.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C517">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akyocera-avx.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D517">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Akyocera-avx.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>flandersinc.com</t>
+        </is>
+      </c>
+      <c r="B518">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aflandersinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C518">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aflandersinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D518">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aflandersinc.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>theleeco.com</t>
+        </is>
+      </c>
+      <c r="B519">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atheleeco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C519">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atheleeco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D519">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Atheleeco.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>caplugs.com</t>
+        </is>
+      </c>
+      <c r="B520">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acaplugs.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C520">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acaplugs.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D520">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Acaplugs.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>turtle.com</t>
+        </is>
+      </c>
+      <c r="B521">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aturtle.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C521">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aturtle.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D521">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aturtle.com+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>smtllcgroup.com</t>
+        </is>
+      </c>
+      <c r="B522">
+        <f>HYPERLINK("https://www.smtllcgroup.com/service/wire-processing/", "YES")</f>
+        <v/>
+      </c>
+      <c r="C522">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asmtllcgroup.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D522">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asmtllcgroup.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>amphenol.com</t>
+        </is>
+      </c>
+      <c r="B523">
+        <f>HYPERLINK("https://www.amphenol.com/products/connectors-power?PageSize=10&amp;pagenumber=6", "YES")</f>
+        <v/>
+      </c>
+      <c r="C523">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D523">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aamphenol.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>galaxywire.com</t>
+        </is>
+      </c>
+      <c r="B524">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agalaxywire.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C524">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agalaxywire.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D524">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Agalaxywire.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>smcelectric.com</t>
+        </is>
+      </c>
+      <c r="B525">
+        <f>HYPERLINK("https://www.smcelectric.com/products/bussmann-busklm6/", "YES")</f>
+        <v/>
+      </c>
+      <c r="C525">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asmcelectric.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D525">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Asmcelectric.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>empirewc.com</t>
+        </is>
+      </c>
+      <c r="B526">
+        <f>HYPERLINK("https://www.empirewc.com/collections/fuse-holder/products/3nw7013-4", "YES")</f>
+        <v/>
+      </c>
+      <c r="C526">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aempirewc.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D526">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aempirewc.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>pcb.com</t>
+        </is>
+      </c>
+      <c r="B527">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apcb.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C527">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apcb.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D527">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Apcb.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>interconind.com</t>
+        </is>
+      </c>
+      <c r="B528">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainterconind.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C528">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainterconind.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D528">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ainterconind.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>johnsonoutdoors.com</t>
+        </is>
+      </c>
+      <c r="B529">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajohnsonoutdoors.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C529">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajohnsonoutdoors.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D529">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Ajohnsonoutdoors.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>stantek-us.com</t>
+        </is>
+      </c>
+      <c r="B530">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astantek-us.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C530">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astantek-us.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D530">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Astantek-us.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>avinpower.com</t>
+        </is>
+      </c>
+      <c r="B531">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aavinpower.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="C531">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aavinpower.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
+        <v/>
+      </c>
+      <c r="D531">
+        <f>HYPERLINK("https://www.google.com/search?q=inurl%3Aavinpower.com+%28%22pv+cable%22+OR+%22photovoltaic%22+OR+%22cooling+hose%22+OR+%22it+cooling%22+OR+%22it+cooling+hose%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specification%29", "NO")</f>
         <v/>
       </c>
     </row>
@@ -9003,7 +18389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D285"/>
+  <dimension ref="A2:D285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9011,7 +18397,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -14393,9 +23778,6 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
-        <v/>
-      </c>
       <c r="B285">
         <f>HYPERLINK("https://www.google.com/search?q=inurl%3Anan+%28%22quick+change+connector%22+OR+%22connector%22+OR+%22quick+disconnect+connector%22+OR+%22quick+connector%22+OR+%22fluid+connector%22+OR+%22hydraulic+connector%22+or+%22hydraulic%22+or+%22fluid%22%29+%28product+OR+buy+OR+shop+OR+store+OR+price+OR+catalog+OR+specifications%29", "NO")</f>
         <v/>
